--- a/data/genius_Bushido_Zeiten-andern-dich.xlsx
+++ b/data/genius_Bushido_Zeiten-andern-dich.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,24 +397,61 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Intro (Zeiten ändern Dich)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Zeiten ändern dich</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Zeiten ändern dich</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Part 1]Yeah, guck malZeiten ändern sich, dich und deine SichtUnd selbst den kleinen Jungen, der fast daran zerbrichtDass seine Mutter auf den Knien, verprügelt wird von ihmWeil der Alkohol ihn zwingt, die Zügel anzuzieh'nUnd es bessert sich nichts, wie ein Messer zerstichtEr die Familie - er lässt sie im StichUm ohne Vater aufzuwachsen musst du hart seinEr war ein Kämpfer und zwar seit Tag einsEr wollt' kein Mitleid, und auch kein MitgefühlJetzt schau ihm in die Augen, denn nur ein Blick genügtUnd du siehst Hass, Schmerz und du siehst Leid purUnd seine Jahre vergeh'n wie auf 'ner scheiß UhrEr scheißt auf Up and DownsEs gab nur Tiefen keine HöhenSein Leben war ungenießbar und nicht schönMein Leben war ungenießbar und nicht schönAber scheiß drauf, ich hab mich längst an diesen Scheiß gewöhntEs geht..[Hook]Ey, Zeiten ändern dichJunge, ob du willst oder nichtGlaub' mir: Das hier ist kein FilmDu kriegst im Leben nichts geschenktAlso denk' an mich, wenn ich dir sag':Zeiten ändern sich(Ey) Zeiten ändern dichJunge, ob du willst oder nichtGlaub' mir: Das hier ist kein FilmDu kriegst im Leben nichts geschenktAlso denk' an mich, wenn ich dir sag':Zeiten ändern sich
-[Part 2]Stop - WeiterIch hatte kein ZielDenn ohne Job wars einfach nicht leicht in BerlinDenn wenn jeder dir erzählt, dass aus dir nichts wirdKann passieren, dass aus dir nichts wirdIch wusst schon von Klein auf: Sie reden? Dann scheiß draufEin Stift, ein Papier und ich nehm' diese Lines aufEin Mic und 'ne Mehrspur war das, was ich hatteNach zwei Jahren hielt ich sie: Krass, meine PlatteDas, was ich mache und das, was ich getan hab, war nötigWer kann mir erzählen, man kann arm sein und fröhlich?Geld bestimmt dein Ich, Geld bestimmt dein SitzWo du grade bist und wen du grade fickstIch hab diese Welt geschaffen für michWie das geht? Schreib einfach über Nacht einen HitUnd verlasse dich nicht auf die Ander'n, sie kenn' das nichtGuck in den Spiegel - Zeiten ändern dich[Hook]Ey, Zeiten ändern dichJunge, ob du willst oder nichtGlaub' mir: Das hier ist kein FilmDu kriegst im Leben nichts geschenktAlso denk' an mich, wenn ich dir sag':Zeiten ändern SichEy, Zeiten ändern dichJunge, ob du willst oder nichtGlaub' mir: Das hier ist kein FilmDu kriegst im Leben nichts geschenktAlso denk' an mich, wenn ich dir sag':Zeiten ändern sich
-[Bridge]Mir tut so vieles heute unfassbar LeidIch musste mich verändern, um was zu seinIch wollt', dass Mama stolz auf mich istHeute ist sie stolz - Zeiten ändern DichMir tut so vieles heute unfassbar LeidIch musste mich verändern, um was zu seinIch wollt' das Mama stolz auf mich istHeute ist sie stolz - Zeiten ändern DichUnd es geht..[Hook]Ey, Zeiten ändern dichJunge, ob du willst oder nichtGlaub' mir: Das hier ist kein FilmDu kriegst im Leben nichts geschenktAlso denk' an mich, wenn ich dir sag':Zeiten ändern SichEy, Zeiten ändern dichJunge, ob du willst oder nichtGlaub' mir: Das hier ist kein FilmDu kriegst im Leben nichts geschenktAlso denk' an mich, wenn ich dir sag':Zeiten ändern sich</t>
+          <t>[Intro: Pressestimmen]
+„Deutschlands Staatsfeind Nummer eins“
+„Genauso erfolgreich wie umstritten“
+„Jugendschützer sehen in dem Rapper eine Gefahr, seine Fans verehren ihn“
+„Staatsfeind Nummer eins“
+„Er bleibt das Sprachrohr einer Jugend“
+„Gelten als hochgefährlicher Mann für die Jugend“
+„Rap, sagt er, ist das Einzige was ich kann“
+„Ist verurteilt wegen Körperverletzung“
+„Er will ja provozieren“
+„Wir sind schockiert, weil es halt so ehrlich ist, in einer Welt die wir nicht begreifen, nicht kennen“
+„Er ist der erfolgreichste Rapper Deutschlands“
+„Deutschlands Gangster-Rapper Nummer eins“
+„Der Auftakt zur Deutschland-Tournee war ausverkauft“
+„Alle Clubs immer ausverkauft“
+„Sein neues Album ist direkt auf Platz zwei der Charts gestartet“
+„Mehr als sieben Millionen CDs verkauft“
+„Die Nummer eins in der Bestsellerliste, sowohl mit Buch und CD, ganz weit vorne“
+„Er ist vierfacher Echo-Preisträger, Bestsellerautor und ein absolutes Multitalent“
+(Scratches)
+Bu, bu... Bu, bu... Bu, bu... Bushido!
+[Part: Bushido]
+Es geht von der Skyline zum Bordstein zurück
+Ich war immer schon gemein wie 10
+Glaub mir es gibt kein' anderen auf diesem Markt, nein
+Es war Electro Ghetto,ich bin der Staatsfeind
+Ich hab den Sonnen-Bank-Flavour gebracht
+Ich wurd gedisst,dann kam Heavy Metal Payback, du Spast!
+Ich bin der Endgegner, und zur Erinnerung
+Ich bin auf 1 eingestiegen - Für Immer Jung
+Und ich hab Alles Verloren, aber nicht mein' Verstand
+Damals hab ich noch gesagt "Reich mir nicht deine Hand"
+Zeiten ändern sich, nein Zeiten ändern dich
+Denn ich war Nie Ein Rapper,also Denk An Mich
+Alles Wird Gut,Regeln muss man brechen
+Fler is wieder da -ich kann Vergeben Und Vergessen
+Ja ich liebe dich Berlin
+Bei Nacht,Die Hoffnung Stirbt Zuletzt,das ist 7
+Der Schmetterling fliegt zu Sonny Black
+Bushido!</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-zeiten-andern-dich-lyrics</t>
+          <t>https://genius.com/Bushido-intro-zeiten-andern-dich-lyrics</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -453,7 +490,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ein Mann Armee</t>
+          <t>Zeiten ändern dich</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -463,14 +500,95 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Part 1]Deutscher Rap ist jetzt so gut wie totEs tut mir Leid, ich kann ein scheiß dafürMan dass eure Texte einfach kein' berührnIhr seit jetzt komplett bankrott man vorbei der TraumDoch ich steh nächstes Jahr noch immer wie ein WeihnachtsbaumMeine Rente, das ist ErsguterjungeWer zuletzt lacht, lacht am besten, FlersguterjungeIch hab den Weg geebnet hart sein ist ModeHier für deine Mutter eine Warsteiner-Dose808 Hi-hat Ich flieg jetzt vorbei, CheckDu glaubst es nicht? Guck nach oben siehst du mein' Jet?Labels machen dicht, Labels werden geschlossenJeder findet Möchtegern-Player-Rap zum KotzenDie Nasen sind gebrochen, A&amp;R's sind misshandeltDeutscher Rap ist für mich wie „Rumble in the jungle“Es war einfach so ein langer WegAb heute nennen Sie mich alle Ein Mann Armee[Hook]Ihr seid gekommen, gegangenWart hier, wart dortEs tut mir Leid doch für euch gab es niemals PlatzDenn ich bleib Gangster-Rap sein VaterUnd ich fick von Studenten-Rap die MutterRap ist Ghetto und nicht StrasseIhr seid gekommen, gegangenWart hier, wart dortEs tut mir Leid ihr wart Steine auf meinem WegVon da an hab ich mir gedacht ich schaff' euch alle aus der WeltUnd deshalb bin ich jetzt die Ein Mann Armee
-[Part 2]Yeah, Ghetto, ich war der erste Rapper hier in DeutschlandDer dieses Wort in einen Text gepackt hat ihr Heuchler!Bordstein, Skyline, Street meine WortwahlIhr habt euch bedient, 030 meine VorwahlEs tut mir Leid, leider war keiner von euch GeeDenn selbst die beste Kopie, bleibt ne KopieIhr seid hier nicht willkommen wie die Kripos im CafeUnd ich hol mir einen runter auf die Videos von LafeeUnd heute steht ihr mit dem Rücken zur WandDen Weg zur Sonderschule gehst du jetzt mit Krücken entlangWir spielen Blamiern und Kassiern, es passiert grad vor dirWas passiert? - Kuck dich um du wirst blamiert und kassierstWas ist Brot für die Welt? Ich flow nur für GeldEuer Rapper-Traum, Homie er ist broke und zerfälltEs war einfach so ein langer WegAb heute nennen sie mich alle Ein Mann Armee[Hook]Ihr seid gekommen, gegangenWart hier, wart dortEs tut mir Leid doch für euch gab es niemals PlatzDenn ich bleib Gangster-Rap sein VaterUnd ich fick von Studenten-Rap die MutterRap ist Ghetto und nicht StrasseIhr seid gekommen, gegangenWart hier, wart dortEs tut mir Leid ihr wart Steine auf meinem WegVon da an hab ich mir gedacht ich schaff' euch alle aus der WeltUnd deshalb bin ich jetzt die Ein Mann Armee
-[Hook]Ihr seid gekommen, gegangenWart hier, wart dortEs tut mir Leid doch für euch gab es niemals PlatzDenn ich bleib Gangster-Rap sein VaterUnd ich fick von Studenten-Rap die MutterRap ist Ghetto und nicht StrasseIhr seid gekommen, gegangenWart hier, wart dortEs tut mir Leid ihr wart Steine auf meinem WegVon da an hab ich mir gedacht ich schaff' euch alle aus der WeltUnd deshalb bin ich jetzt die Ein Mann Armee</t>
+          <t>[Part 1]
+Yeah, guck mal
+Zeiten ändern sich, dich und deine Sicht
+Und selbst den kleinen Jungen, der fast daran zerbricht
+Dass seine Mutter auf den Knien, verprügelt wird von ihm
+Weil der Alkohol ihn zwingt, die Zügel anzuzieh'n
+Und es bessert sich nichts, wie ein Messer zersticht
+Er die Familie - er lässt sie im Stich
+Um ohne Vater aufzuwachsen musst du hart sein
+Er war ein Kämpfer und zwar seit Tag eins
+Er wollt' kein Mitleid, und auch kein Mitgefühl
+Jetzt schau ihm in die Augen, denn nur ein Blick genügt
+Und du siehst Hass, Schmerz und du siehst Leid pur
+Und seine Jahre vergeh'n wie auf 'ner scheiß Uhr
+Er scheißt auf Up and Downs
+Es gab nur Tiefen keine Höhen
+Sein Leben war ungenießbar und nicht schön
+Mein Leben war ungenießbar und nicht schön
+Aber scheiß drauf, ich hab mich längst an diesen Scheiß gewöhnt
+Es geht..
+[Hook]
+Ey, Zeiten ändern dich
+Junge, ob du willst oder nicht
+Glaub' mir: Das hier ist kein Film
+Du kriegst im Leben nichts geschenkt
+Also denk' an mich, wenn ich dir sag':
+Zeiten ändern sich
+(Ey) Zeiten ändern dich
+Junge, ob du willst oder nicht
+Glaub' mir: Das hier ist kein Film
+Du kriegst im Leben nichts geschenkt
+Also denk' an mich, wenn ich dir sag':
+Zeiten ändern sich
+[Part 2]
+Stop - WeiterIch hatte kein ZielDenn ohne Job wars einfach nicht leicht in BerlinDenn wenn jeder dir erzählt, dass aus dir nichts wird
+Kann passieren, dass aus dir nichts wird
+Ich wusst schon von Klein auf: Sie reden? Dann scheiß drauf
+Ein Stift, ein Papier und ich nehm' diese Lines auf
+Ein Mic und 'ne Mehrspur war das, was ich hatte
+Nach zwei Jahren hielt ich sie: Krass, meine Platte
+Das, was ich mache und das, was ich getan hab, war nötig
+Wer kann mir erzählen, man kann arm sein und fröhlich?
+Geld bestimmt dein Ich, Geld bestimmt dein Sitz
+Wo du grade bist und wen du grade fickst
+Ich hab diese Welt geschaffen für mich
+Wie das geht? Schreib einfach über Nacht einen Hit
+Und verlasse dich nicht auf die Ander'n, sie kenn' das nicht
+Guck in den Spiegel - Zeiten ändern dich
+[Hook]
+Ey, Zeiten ändern dich
+Junge, ob du willst oder nicht
+Glaub' mir: Das hier ist kein Film
+Du kriegst im Leben nichts geschenkt
+Also denk' an mich, wenn ich dir sag':
+Zeiten ändern Sich
+Ey, Zeiten ändern dich
+Junge, ob du willst oder nicht
+Glaub' mir: Das hier ist kein Film
+Du kriegst im Leben nichts geschenkt
+Also denk' an mich, wenn ich dir sag':
+Zeiten ändern sich
+[Bridge]
+Mir tut so vieles heute unfassbar Leid
+Ich musste mich verändern, um was zu sein
+Ich wollt', dass Mama stolz auf mich ist
+Heute ist sie stolz - Zeiten ändern Dich
+Mir tut so vieles heute unfassbar Leid
+Ich musste mich verändern, um was zu sein
+Ich wollt' das Mama stolz auf mich ist
+Heute ist sie stolz - Zeiten ändern Dich
+Und es geht..
+[Hook]
+Ey, Zeiten ändern dich
+Junge, ob du willst oder nicht
+Glaub' mir: Das hier ist kein Film
+Du kriegst im Leben nichts geschenkt
+Also denk' an mich, wenn ich dir sag':
+Zeiten ändern Sich
+Ey, Zeiten ändern dich
+Junge, ob du willst oder nicht
+Glaub' mir: Das hier ist kein Film
+Du kriegst im Leben nichts geschenkt
+Also denk' an mich, wenn ich dir sag':
+Zeiten ändern sich</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-ein-mann-armee-lyrics</t>
+          <t>https://genius.com/Bushido-zeiten-andern-dich-lyrics</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -509,7 +627,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23 Stunden Zelle</t>
+          <t>Ein Mann Armee</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -519,14 +637,67 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Instrumental break][Intro](23 Stunden Zelle)(23 Stunden Zelle)23 Stunden Zelle, jeden Tag das gleicheDu warst hier nie drin, also erzähl uns keine ScheißeJeden Tag das gleicheTrainieren bis du umfällstDu kriegst auf die Fresse, wenn du wie ein Hund bellst[Part 1]Hier haben Jungs Zellen, wo kein Licht rein kommtIch weiß Thomas D., das ist nicht dein SongWände die grau sind, Stahltür'n die zu sindEinzelhaft im Dunkeln, irgendwann bist du blindUnd jeder weiß, genau wie sich der andere fühltDu machst nur das, was dir dein Verstand befiehltUnd dein verdammtes Ziel, ist wieder frei zu seinUnd nachts wenn alle schlafen, bist du ganz alleinDu bist allein, dir bleibt nur das GebetUnd wieder fällts dir auf, dass sich der Zeiger nicht mehr drehtWo sind meine Knastbrüder, wo sind die Draufgänger?Mittelfinger für die V-Männer[Hook]23 Stunden ZelleDas ist unser LebenWir sind hier gelandet, für uns gibt es keine Regeln23 Stunden ZelleGhettorap hin, Ghettorap herDieses Leben war nicht fair23 Stunden ZelleDie Faust ball' ich zusamm'Tag ein, Tag aus, wir sind hier gefang'23 Stunden ZelleKein Ausweg in SichtBeiß die Zähne zusamm, wenn du am Aufgeben bist
-[Part 2]23 Stunden ZelleAraber, Deutsche, Türken, RussenWir halten hier zusamm, weil wir's müssenWenn wir Karten spiel'n, wie Soldaten dealn'Du willst 'nen Fernseher. Komm zu mir. Du zahlst nicht vielJa du zahlst nicht viel, wie meine ZellenkumpanenWir sind drin, wegen Überfällen im LadenEr hat uns abgehakt, der verkackte StaatSie wolln uns resozialisieren, doch es macht uns hartTag ein, Tag aus, Junge das ist Blood in Blood OutWir verliern unsern TraumDas Essen hier, würde nicht mal euer Hund fressenIch schmeiß' ne Runde Filet, und die Jungs lächelnLächelnd, schließt der Wärter unser SchlossDer Knast ist keine Serie, wer is hier der Boss?Zigaretten sind Geld, in diesen dreckigen ZellenIch leb' in dieser viereckigen Welt[Hook]23 Stunden ZelleDas ist unser LebenWir sind hier gelandet, für uns gibt es keine Regeln23 Stunden ZelleGhettorap hin, Ghettorap herDieses Leben war nicht fair23 Stunden ZelleDie Faust ball' ich zusamm'Tag ein, Tag aus, wir sind hier gefang'23 Stunden ZelleKein Ausweg in SichtBeiß die Zähne zusamm, wenn du am Aufgeben bist
-[Part 3]23 Stunden ZelleJunge, eine Stunde Ausgang (ah ah)Und sie pumpen sich auf manDiese Tattoos hier sind selbsgestochenUnd kein Knast hat jemals diesen Fels gebrochenDie Mauern sind 10 Meter breit, 10 Meter hochTrotzdem kriegst du hier drin 10 Meter KoksUndercover hier im WaschsalonPack ich den Stoff in den Pappkarton[Hook]23 Stunden ZelleDas ist unser LebenWir sind hier gelandet, für uns gibt es keine Regeln23 Stunden ZelleGhettorap hin, Ghettorap herDieses Leben war nicht fair[Outro]23 Stunden ZelleDie Faust ball' ich zusamm'Tag ein, Tag aus, wir sind hier gefang'23 Stunden ZelleKein Ausweg in SichtBeiß die Zähne zusamm, wenn du am Aufgeben bist</t>
+          <t>[Part 1]
+Deutscher Rap ist jetzt so gut wie tot
+Es tut mir Leid, ich kann ein scheiß dafür
+Man dass eure Texte einfach kein' berührn
+Ihr seit jetzt komplett bankrott man vorbei der Traum
+Doch ich steh nächstes Jahr noch immer wie ein Weihnachtsbaum
+Meine Rente, das ist Ersguterjunge
+Wer zuletzt lacht, lacht am besten, Flersguterjunge
+Ich hab den Weg geebnet hart sein ist Mode
+Hier für deine Mutter eine Warsteiner-Dose
+808 Hi-hatIch flieg jetzt vorbei, Check
+Du glaubst es nicht? Guck nach oben siehst du mein' Jet?
+Labels machen dicht, Labels werden geschlossen
+Jeder findet Möchtegern-Player-Rap zum Kotzen
+Die Nasen sind gebrochen, A&amp;R's sind misshandelt
+Deutscher Rap ist für mich wie „Rumble in the jungle“
+Es war einfach so ein langer Weg
+Ab heute nennen Sie mich alle Ein Mann Armee
+[Hook]
+Ihr seid gekommen, gegangen
+Wart hier, wart dort
+Es tut mir Leid doch für euch gab es niemals Platz
+Denn ich bleib Gangster-Rap sein Vater
+Und ich fick von Studenten-Rap die Mutter
+Rap ist Ghetto und nicht Strasse
+Ihr seid gekommen, gegangen
+Wart hier, wart dort
+Es tut mir Leid ihr wart Steine auf meinem Weg
+Von da an hab ich mir gedacht ich schaff' euch alle aus der Welt
+Und deshalb bin ich jetzt die Ein Mann Armee
+[Part 2]
+Yeah, Ghetto, ich war der erste Rapper hier in DeutschlandDer dieses Wort in einen Text gepackt hat ihr Heuchler!Bordstein, Skyline, Street meine WortwahlIhr habt euch bedient,030 meine Vorwahl
+Es tut mir Leid, leider war keiner von euch GeeDenn selbst die beste Kopie, bleibt ne Kopie
+Ihr seid hier nicht willkommen wie die Kripos im Cafe
+Und ich hol mir einen runter auf die Videos von Lafee
+Und heute steht ihr mit dem Rücken zur Wand
+Den Weg zur Sonderschule gehst du jetzt mit Krücken entlang
+Wir spielen Blamiern und Kassiern, es passiert grad vor dirWas passiert? - Kuck dich um du wirst blamiert und kassierst
+Was ist Brot für die Welt? Ich flow nur für Geld
+Euer Rapper-Traum, Homie er ist broke und zerfällt
+Es war einfach so ein langer Weg
+Ab heute nennen sie mich alle Ein Mann Armee
+[Hook]
+Ihr seid gekommen, gegangen
+Wart hier, wart dort
+Es tut mir Leid doch für euch gab es niemals Platz
+Denn ich bleib Gangster-Rap sein Vater
+Und ich fick von Studenten-Rap die Mutter
+Rap ist Ghetto und nicht Strasse
+Ihr seid gekommen, gegangen
+Wart hier, wart dort
+Es tut mir Leid ihr wart Steine auf meinem Weg
+Von da an hab ich mir gedacht ich schaff' euch alle aus der Welt
+Und deshalb bin ich jetzt die Ein Mann Armee
+[Hook]
+Ihr seid gekommen, gegangenWart hier, wart dortEs tut mir Leid doch für euch gab es niemals PlatzDenn ich bleib Gangster-Rap sein VaterUnd ich fick von Studenten-Rap die MutterRap ist Ghetto und nicht StrasseIhr seid gekommen, gegangenWart hier, wart dortEs tut mir Leid ihr wart Steine auf meinem WegVon da an hab ich mir gedacht ich schaff' euch alle aus der WeltUnd deshalb bin ich jetzt die Ein Mann Armee</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-23-stunden-zelle-lyrics</t>
+          <t>https://genius.com/Bushido-ein-mann-armee-lyrics</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -565,7 +736,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lichtlein</t>
+          <t>23 Stunden Zelle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,14 +746,94 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[Verse 1: Bushido]Du stehst morgens auf, jeder ist am StressenWolkendecke grau, Lehrer sind am StressenMan du fühlst dich hässlich, wem kannst du vertrau'n?Warum Vertrauen schenken, wenn jeder es missbrauchtJeden Tag nur down, du siehst die ganzen ScherbenEigentlich möchtest du doch nur verstanden werdenMissverständnis hier, Missverständnis daDu setzt ein Ziel doch es ist schwer die Richtung zu bewahr'nMan redet dir auch ein, dir fehlt die DisziplinDie Tage scheinen so lang, sie reden viel zu vielDer Kopfschmerz steigt, du hättest gern FlügelDamit du weit weg fliegen kannst, du bist müdeMüde von dem Stress, Müde von dem GanzenDie Last auf deinen Schultern, wie RiesenelefantenDu fühlst dich selbst von der Familie nicht verstandenWer öffnet dir jetzt endlich diese Schranken?[Hook: Bushido]Glaub mir immer wenn du denkst, es geht nicht mehrKommt von irgendwo ein Lichtlein herLass sie reden denn ich weiß wie du dich fühlst, und denk jetzt nichtDass uns Welten trennen, ich hab in der Scheiße tief gewühltImmer wenn du denkst, es geht nicht mehrKommt von irgendwo ein Lichtlein herLass sie reden denn ich weiß wie du dich fühlst, und denk jetzt nichtDass uns Welten trennen, ich hab in der Scheiße tief gewühlt
-[Verse 2: Bushido]Ich steh morgens auf, und jeder ist am StressenDie Sonne ist am Scheinen, ich lass mich nicht stressenIch fühl mich nicht mehr hässlich, eigentlich brauchIch keine scheiß Tipps, links rein und rechts rausIch weiß wie hart das ist, die Steine wegzuräum'nWenn alle nur noch lachen, und meinen 'Hör auf zu träumen'Wenn sie die Hoffnung nehmen, an die du ja so glaubstDu liegst am Boden, guck wie sie befriedigt auf dich schau'nWie unfair kann man sein? Du liegst schon tief im LochUnd trotzdem wird noch reingetreten bis du kotztDer Schmerz geht vorbei, bei Narben wird es schwerAber glaub mir von irgendwo kommt ein Lichtlein herUnd dieses Lichtlein sorgt, dafür das du es schaffstWieder aufzustehen, egal wie du verkackstEgal wie groß das Leid, oder dieser Schmerz doch istDas Leben ist zu kurz hör auf mich[Hook][Verse 3: Bushido]Bitte glaub mir, egal wie schlecht es dir gehtIrgendwann kommt ein Lichtlein herJa und dann merkst du, wie schön es ist wieder zu lachenKopf hoch man das ist mein ErnstIch weiß es fällt dir, grade so schwer mir einfach mal Glauben zu schenkenDoch ich meins nur gutDu verlierst nichtsWisch die Tränen aus deinem Gesicht, ja und mach diesen einen Versuch
-[Hook]</t>
+          <t>[Instrumental break]
+[Intro]
+(23 Stunden Zelle)(23 Stunden Zelle)
+23 Stunden Zelle, jeden Tag das gleiche
+Du warst hier nie drin, also erzähl uns keine Scheiße
+Jeden Tag das gleicheTrainieren bis du umfällst
+Du kriegst auf die Fresse, wenn du wie ein Hund bellst
+[Part 1]
+Hier haben Jungs Zellen, wo kein Licht rein kommt
+Ich weiß Thomas D., das ist nicht dein Song
+Wände die grau sind, Stahltür'n die zu sind
+Einzelhaft im Dunkeln, irgendwann bist du blind
+Und jeder weiß, genau wie sich der andere fühlt
+Du machst nur das, was dir dein Verstand befiehlt
+Und dein verdammtes Ziel, ist wieder frei zu sein
+Und nachts wenn alle schlafen, bist du ganz allein
+Du bist allein, dir bleibt nur das Gebet
+Und wieder fällts dir auf, dass sich der Zeiger nicht mehr dreht
+Wo sind meine Knastbrüder, wo sind die Draufgänger?
+Mittelfinger für die V-Männer
+[Hook]
+23 Stunden Zelle
+Das ist unser Leben
+Wir sind hier gelandet, für uns gibt es keine Regeln
+23 Stunden Zelle
+Ghettorap hin, Ghettorap her
+Dieses Leben war nicht fair
+23 Stunden Zelle
+Die Faust ball' ich zusamm'
+Tag ein, Tag aus, wir sind hier gefang'
+23 Stunden Zelle
+Kein Ausweg in Sicht
+Beiß die Zähne zusamm, wenn du am Aufgeben bist
+[Part 2]
+23 Stunden Zelle
+Araber, Deutsche, Türken, RussenWir halten hier zusamm, weil wir's müssenWenn wir Karten spiel'n, wie Soldaten dealn'
+Du willst 'nen Fernseher. Komm zu mir. Du zahlst nicht vielJa du zahlst nicht viel, wie meine ZellenkumpanenWir sind drin, wegen Überfällen im Laden
+Er hat uns abgehakt, der verkackte Staat
+Sie wolln uns resozialisieren, doch es macht uns hart
+Tag ein, Tag aus, Junge das ist Blood in Blood Out
+Wir verliern unsern Traum
+Das Essen hier, würde nicht mal euer Hund fressen
+Ich schmeiß' ne Runde Filet, und die Jungs lächeln
+Lächelnd, schließt der Wärter unser Schloss
+Der Knast ist keine Serie, wer is hier der Boss?
+Zigaretten sind Geld, in diesen dreckigen Zellen
+Ich leb' in dieser viereckigen Welt
+[Hook]
+23 Stunden Zelle
+Das ist unser Leben
+Wir sind hier gelandet, für uns gibt es keine Regeln
+23 Stunden Zelle
+Ghettorap hin, Ghettorap her
+Dieses Leben war nicht fair
+23 Stunden Zelle
+Die Faust ball' ich zusamm'
+Tag ein, Tag aus, wir sind hier gefang'
+23 Stunden Zelle
+Kein Ausweg in Sicht
+Beiß die Zähne zusamm, wenn du am Aufgeben bist
+[Part 3]
+23 Stunden Zelle
+Junge, eine Stunde Ausgang (ah ah)
+Und sie pumpen sich auf man
+Diese Tattoos hier sind selbsgestochen
+Und kein Knast hat jemals diesen Fels gebrochen
+Die Mauern sind 10 Meter breit, 10 Meter hochTrotzdem kriegst du hier drin 10 Meter Koks
+Undercover hier im Waschsalon
+Pack ich den Stoff in den Pappkarton
+[Hook]
+23 Stunden Zelle
+Das ist unser Leben
+Wir sind hier gelandet, für uns gibt es keine Regeln
+23 Stunden Zelle
+Ghettorap hin, Ghettorap her
+Dieses Leben war nicht fair
+[Outro]
+23 Stunden Zelle
+Die Faust ball' ich zusamm'
+Tag ein, Tag aus, wir sind hier gefang'
+23 Stunden Zelle
+Kein Ausweg in Sicht
+Beiß die Zähne zusamm, wenn du am Aufgeben bist</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-lichtlein-lyrics</t>
+          <t>https://genius.com/Bushido-23-stunden-zelle-lyrics</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -621,7 +872,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Airmax auf Beton</t>
+          <t>Lichtlein</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,14 +882,65 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Hook: Fler &amp;; Bushido]Wir gehen den harten WegDa draußen Los Komm!Denn ich steh hier in Airmax auf dem BetonUnd unsere Feinde sie laufen, sie laufen davonDenn ich steh hier in Airmax auf dem BetonIch geh ans Mic bei Nacht komm bounce zu dem SongDenn ich steh hier in Airmax auf dem BetonWir haben alles verloren und dann alles gewonnenUnd wir stehn hier in Airmax auf dem Beton[Part 1: FLER]Es geht Klopf, KlopfHier kommen die Gang Member die dein Lehrer hasstSchlampe sag mir wer macht FaxenKein Problem ich regel dasLiebe oder Labels fick auf Sex in the CityIch schieße auf die Labels hab jetzt Sex in der CityAuf der Straße ficken wir die Wixxer und BänkerDichter und Denker, der scheiß Direktor springt aus dem FensterDas hier ist Crime-Time, unsere Fotos sind in der ZeitungSie hören uns ab, die Kripo-Ficker sind in der LeitungIch mach das Business - Ein neuer Tag, ein neuer DealIch spiel das Spiel um zu gewinnen fick auf dein Keep it realMan ich bin cool, Ich komm zum Battle ganz alleineUnd wenn ich sterbe, wir sehn uns auf der anderen SeiteIch steh am Block, noch immer, nichts hat sich geändertNur mein Outfit, der Wagen und die Farbe der FensterJetzt sind sie schwarzIch schau nach draußen schau wie ein GangsterUnd was ich sehe, die Menschen, nein 1000 GespensterIch geb ein Fick drauf wenn du mich disstScheiß egal ich fick drauf27 Jahre Schmerz so sieht mein Gesicht ausHörst du wie Fler rappt?Komm bounce zu dem SongSonny Black und Frank White mit Airmax auf dem Beton
-[Hook]Wir gehen den harten WegDa draußen Los Komm!Denn ich steh hier in Airmax auf dem BetonUnd unsere Feinde sie laufen, sie laufen davonDenn ich steh hier in Airmax auf dem BetonIch geh ans Mic bei Nacht komm bounce zu dem SongDenn ich steh hier in Airmax auf dem BetonWir haben alles verloren und dann alles gewonnenUnd wir stehn hier in Airmax auf dem Beton[Part 2: BUSHIDO]Mit Airmax auf dem Beton, hör die Pause, den GongBin rausgekommen damit die andern auf die Schnauze bekommenIch trag die Airmax in weiß, ich hab Berlin eingesticktKein Gangster auf der Street ist so beliebt bei den KidsYeahGhetto oder Loft - Penthouse oder SuiteDu willst Beef doch du beißt mit deinen Pampers auf GranitIch bleib Beverly Hills, 90210 man du GrotteSag wo kaufst du ein, QVC?Meine große Schnauze hat mich so weit gebrachtDeckel auf, ich drück dein Kopf ins Klo rein du SpastDie Füße auf den Tisch, ich bin Chef, du AngestellterSo seltsam die ganze Welt wird hässlich und auch kälterGhetto, Ghetto, Ghetto es heisst Blut rein und Blut rausMein nächstes Ziel ist erstmal Flugschein, dann UrlaubDie ganzen Rapper sind halt neidisch, weil sie nichts könnenDas ist der Grund warum sie nichts gönnenMich können - die ganzen Flachwixxer heute kreuzweiseIch mach ne Kreuzreise, du suchst im Heu ScheißeEuer Sündenbock auf diesem SongFrank White und Sonny Black mit Airmax auf dem BetonYeah
-[Hook]Wir gehen den harten WegDa draußen Los Komm!Denn ich steh hier in Airmax auf dem BetonUnd unsere Feinde sie laufen, sie laufen davonDenn ich steh hier in Airmax auf dem BetonIch geh ans Mic bei Nacht komm bounce zu dem SongDenn ich steh hier in Airmax auf dem BetonWir haben alles verloren und dann alles gewonnenUnd wir stehn hier in Airmax auf dem Beton</t>
+          <t>[Verse 1: Bushido]
+Du stehst morgens auf, jeder ist am Stressen
+Wolkendecke grau,Lehrer sind am Stressen
+Man du fühlst dich hässlich, wem kannst du vertrau'n?
+Warum Vertrauen schenken, wenn jeder es missbraucht
+Jeden Tag nur down, du siehst die ganzen Scherben
+Eigentlich möchtest du doch nur verstanden werden
+Missverständnis hier, Missverständnis da
+Du setzt ein Ziel doch es ist schwer die Richtung zu bewahr'n
+Man redet dir auch ein, dir fehlt die Disziplin
+Die Tage scheinen so lang, sie reden viel zu viel
+Der Kopfschmerz steigt, du hättest gern Flügel
+Damit du weit weg fliegen kannst, du bist müde
+Müde von dem Stress, Müde von dem Ganzen
+Die Last auf deinen Schultern, wie Riesenelefanten
+Du fühlst dich selbst von der Familie nicht verstanden
+Wer öffnet dir jetzt endlich diese Schranken?
+[Hook: Bushido]
+Glaub mir immer wenn du denkst, es geht nicht mehr
+Kommt von irgendwo ein Lichtlein her
+Lass sie reden denn ich weiß wie du dich fühlst, und denk jetzt nicht
+Dass uns Welten trennen, ich hab in der Scheiße tief gewühlt
+Immer wenn du denkst, es geht nicht mehr
+Kommt von irgendwo ein Lichtlein her
+Lass sie reden denn ich weiß wie du dich fühlst, und denk jetzt nicht
+Dass uns Welten trennen, ich hab in der Scheiße tief gewühlt
+[Verse 2: Bushido]
+Ich steh morgens auf, und jeder ist am Stressen
+Die Sonne ist am Scheinen, ich lass mich nicht stressen
+Ich fühl mich nicht mehr hässlich, eigentlich brauch
+Ich keine scheiß Tipps,links rein und rechts raus
+Ich weiß wie hart das ist, die Steine wegzuräum'n
+Wenn alle nur noch lachen, und meinen 'Hör auf zu träumen'
+Wenn sie die Hoffnung nehmen, an die du ja so glaubst
+Du liegst am Boden, guck wie sie befriedigt auf dich schau'n
+Wie unfair kann man sein? Du liegst schon tief im Loch
+Und trotzdem wird noch reingetreten bis du kotzt
+Der Schmerz geht vorbei, bei Narben wird es schwer
+Aber glaub mir von irgendwo kommt ein Lichtlein her
+Und dieses Lichtlein sorgt, dafür das du es schaffst
+Wieder aufzustehen, egal wie du verkackst
+Egal wie groß das Leid, oder dieser Schmerz doch ist
+Das Leben ist zu kurz hör auf mich
+[Hook]
+[Verse 3: Bushido]
+Bitte glaub mir, egal wie schlecht es dir geht
+Irgendwann kommt ein Lichtlein her
+Ja und dann merkst du, wie schön es ist wieder zu lachen
+Kopf hoch man das ist mein Ernst
+Ich weiß es fällt dir, grade so schwer mir einfach mal Glauben zu schenken
+Doch ich meins nur gut
+Du verlierst nichts
+Wisch die Tränen aus deinem Gesicht, ja und mach diesen einen Versuch
+[Hook]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-airmax-auf-beton-lyrics</t>
+          <t>https://genius.com/Bushido-lichtlein-lyrics</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -677,7 +979,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alles wird gut</t>
+          <t>Airmax auf Beton</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,14 +989,90 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Songtext zu „Alles wird gut“][Part 1]Yeah!Dieses Leben ist nicht immer dankbar, neinDieses Leben ist nicht immer leichtUnd manchmal denkst du, du bist ganz alleinUnd du begreifst nun, dass jeder auf dich scheißtUnd du lässt jetzt deine Tränen raus und weinstJeder versucht dir deine Träume auszuredenWeil sie hoffen, dass du anfängst aufzugebenUnd du fragst dich: Wann hört er bloß auf, der Regen?Können sie's einfach nicht lassen, auf dich draufzutreten?Du spürst die Blicke und du weißt, du bist hier nicht willkommen, hier nicht willkommenWeil du hier keine Liebe bekommstDieser Beton nennt sich 'Leben', JungeUnd das sind KopfschmerzenUnd dieser Kopfschmerz lässt dich in 'nem Loch sterbenUnd keiner antwortet dirIch bin wie du und du wie ich - es gibt eine Handvoll wie wirDenn morgen ist ein neuer Tag, hör auf dein Herz und versuch'sAber glaub mir: Alles wird gut[Hook]Und wenn sie meinen du stehst nie wieder auf - dann lass sie redenJunge, zeig ihnen, das ist dein Traum - du wirst ihn lebenUnd beweis' diesen Leuten, die niemals an dich geglaubt haben:Das, was sie haben, kannst du auch habenDenn wenn sie meinen, du hast hier nix verloren, dann zeig es ihn'!Zeig es allen, keiner hält dich mehr aufKomm, lass dich fallenHeb' den Kopf und blick einfach nach vorn' und jetzt versuch'sIch sag', versuch's! Alles wird gut!
-[Part 2]Alles wird gut, MannDu schaffst das schonDu bist den Neid und den Hass gewohnt aber du hast HerzWann wird das belohnt?Und dieser Weg ist ein verdammtes LabyrinthDu hast Träume obwohl Schlafwandeln dir nix bringtHör auf dein' Instinkt, hör nicht auf die Leute, die redenDenn du siehst selbst, dass deine Freunde hier stehenSei deinen Freunden nah, doch deinen Feinden noch näherVergessen ist einfach, doch verzeihen ist schwererBleib wie du bist, auch wenn sie sagen, dass du nix bistMach es für dich, glaub mir, Mann, sonst packst du es nichtUnd packst du es nicht, ja, dann scheißen alle auf dichDann bist du alles und nix und vor allem ein WitzLass dich nicht runterziehen, lass dich nicht unterkriegenSie hab'n das gleiche Ziel, sind selber unzufriedenAuch wenn es hart istWir werden alle Helden sein, auch wenn es nur für ein' Tag ist, yeah![Hook]Und wenn sie meinen du stehst nie wieder auf - dann lass sie redenJunge, zeig ihnen das ist dein Traum - du wirst ihn lebenUnd beweis diesen Leuten, die niemals an dich geglaubt haben:Das, was sie haben, kannst du auch habenDenn wenn sie meinen, du hast hier nix verloren, dann zeig es ihn'!Zeig es allen, keiner hält dich mehr auf, komm, lass dich fallenHeb den Kopf und blick einfach nach vorn und jetzt versuch'sIch sag', versuch's! Alles wird gut!
-[Bridge]Und bist du unten, drücken sie dich noch ein Stück tieferNoch ein Stück tiefer, noch ein Stück tieferSteh', steh' jetzt auf und zeig ihn' wer du bist, dennBist du erst weg, dann weint keiner mehr um dichUnd bist du unten, drücken sie dich noch ein Stück tieferNoch ein Stück tiefer, noch ein Stück tieferSteh', steh' jetzt auf und zeig ihn' wer du bist, dennBist du erst weg, dann weint keiner mehr um dich[Hook]Und wenn sie meinen du stehst nie wieder auf - dann lass sie redenJunge, zeig ihnen das ist dein Traum - du wirst ihn lebenUnd beweis diesen Leuten, die niemals an dich geglaubt haben:Das, was sie haben, kannst du auch habenDenn wenn sie meinen, du hast hier nix verloren, dann zeig es ihn'!Zeig es allen, keiner hält dich mehr auf, komm, lass dich fallenHeb den Kopf und blick einfach nach vorn und jetzt versuch'sIch sag', versuch's! Alles wird gut!</t>
+          <t>[Hook: Fler &amp;; Bushido]
+Wir gehen den harten Weg
+Da draußen Los Komm!
+Denn ich steh hier in Airmax auf dem Beton
+Und unsere Feinde sie laufen, sie laufen davon
+Denn ich steh hier in Airmax auf dem Beton
+Ich geh ans Mic bei Nacht komm bounce zu dem Song
+Denn ich steh hier in Airmax auf dem Beton
+Wir haben alles verloren und dann alles gewonnen
+Und wir stehn hier in Airmax auf dem Beton
+[Part 1: FLER]
+Es geht Klopf, Klopf
+Hier kommen die Gang Member die dein Lehrer hasst
+Schlampe sag mir wer macht Faxen
+Kein Problem ich regel das
+Liebe oder Labels fick auf Sex in the City
+Ich schieße auf die Labels hab jetzt Sex in der City
+Auf der Straße ficken wir die Wixxer und Bänker
+Dichter und Denker, der scheiß Direktor springt aus dem Fenster
+Das hier ist Crime-Time, unsere Fotos sind in der Zeitung
+Sie hören uns ab, die Kripo-Ficker sind in der Leitung
+Ich mach das Business - Ein neuer Tag, ein neuer Deal
+Ich spiel das Spiel um zu gewinnen fick auf dein Keep it real
+Man ich bin cool, Ich komm zum Battle ganz alleine
+Und wenn ich sterbe, wir sehn uns auf der anderen Seite
+Ich steh am Block, noch immer, nichts hat sich geändert
+Nur mein Outfit, der Wagen und die Farbe der Fenster
+Jetzt sind sie schwarz
+Ich schau nach draußen schau wie ein Gangster
+Und was ich sehe, die Menschen, nein 1000 Gespenster
+Ich geb ein Fick drauf wenn du mich disst
+Scheiß egal ich fick drauf
+27 Jahre Schmerz so sieht mein Gesicht aus
+Hörst du wie Fler rappt?
+Komm bounce zu dem Song
+Sonny Black und Frank Whitemit Airmax auf dem Beton
+[Hook]
+Wir gehen den harten Weg
+Da draußen Los Komm!
+Denn ich steh hier in Airmax auf dem Beton
+Und unsere Feinde sie laufen, sie laufen davon
+Denn ich steh hier in Airmax auf dem Beton
+Ich geh ans Mic bei Nacht komm bounce zu dem Song
+Denn ich steh hier in Airmax auf dem Beton
+Wir haben alles verloren und dann alles gewonnen
+Und wir stehn hier in Airmax auf dem Beton
+[Part 2: BUSHIDO]
+Mit Airmax auf dem Beton, hör die Pause, den Gong
+Bin rausgekommen damit die andern auf die Schnauze bekommen
+Ich trag die Airmax in weiß, ich hab Berlin eingestickt
+Kein Gangster auf der Street ist so beliebt bei den Kids
+Yeah
+Ghetto oder Loft - Penthouse oder Suite
+Du willst Beef doch du beißt mit deinen Pampers auf Granit
+Ich bleib Beverly Hills,90210man du Grotte
+Sag wo kaufst du ein, QVC?
+Meine große Schnauze hat mich so weit gebracht
+Deckel auf, ich drück dein Kopf ins Klo rein du Spast
+Die Füße auf den Tisch, ich bin Chef, du Angestellter
+So seltsam die ganze Welt wird hässlich und auch kälter
+Ghetto, Ghetto, Ghetto es heisst Blut rein und Blut raus
+Mein nächstes Ziel ist erstmal Flugschein, dann Urlaub
+Die ganzen Rapper sind halt neidisch, weil sie nichts können
+Das ist der Grund warum sie nichts gönnen
+Mich können - die ganzen Flachwixxer heute kreuzweise
+Ich mach ne Kreuzreise, du suchst im Heu Scheiße
+Euer Sündenbock auf diesem Song
+Frank White und Sonny Black mit Airmax auf dem Beton
+Yeah
+[Hook]
+Wir gehen den harten Weg
+Da draußen Los Komm!
+Denn ich steh hier in Airmax auf dem Beton
+Und unsere Feinde sie laufen, sie laufen davon
+Denn ich steh hier in Airmax auf dem Beton
+Ich geh ans Mic bei Nacht komm bounce zu dem Song
+Denn ich steh hier in Airmax auf dem Beton
+Wir haben alles verloren und dann alles gewonnen
+Und wir stehn hier in Airmax auf dem Beton</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-alles-wird-gut-lyrics</t>
+          <t>https://genius.com/Bushido-airmax-auf-beton-lyrics</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -733,7 +1111,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vergeben &amp; Vergessen</t>
+          <t>Alles wird gut</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -743,14 +1121,82 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Part 1]Du hast geleuchtet für mich am Himmel, du warst so wunderbarVersucht mir mein Weg zu zeigen, als es dunkel warMich vor der Welt beschützt, weil die Welt so schlecht istHab' ich's dir nicht gesagt? Meine Welt ist hässlichTrotzdem hatte ich Angst, du würdest wieder geh'nDenn dieses Leben, das ich lebe das will niemand seh'n!Und du hast aufgepasst, denn ich hab' schlecht geträumtDu hast für mich gekämpft damals, wie ein echter Freund!Jedes Mal, wenn ich nachts depressiv warAls sie meinten: „Warum ist der Spaßt schwer erziehbar?"Warst du für mich da, hast meine Trän'n aufgefang'nWir wussten es, wir geh'n auch erst dann wenn unser Herz nicht mehr schlägtSich diese Welt nicht mehr dreht, weil alles dann mit Wert nicht mehr zähltUnd ich warte noch auf dich, bitte sag jetzt einfach nichts, die Narben sind zu frisch[Hook]Ich kann vergeben, doch nicht vergessenDu warst mein Mädchen, ich war besessenEs sind die Trän'n, die für sich sprechenIch will endlich wieder leben, lass die Sonne in den Regen, glaub mirIch kann vergeben, doch nicht vergessenDu warst mein Mädchen, ich war besessenEs sind die Trän'n, die für sich sprechenIch will endlich wieder leben, lass die Sonne in den Regen, glaub mir
-[Part 2]Von wegen Zeiten ändern sich, Zeiten ändern dich!Es wurd' dir viel zu viel, auf einmal kam: „Ich kenn' das nicht!"Und dein Verständnis wurde plötzlich mein GefängnisIch wusste, dass mein Leben dir zu fremd istEr ist verschwunden, der Glanz in deinem BlickAuf einmal wolltest du nur anders sein als ich!Dich aufgeben? Daran hätt' ich nicht gedachtHab' so oft gesagt: „Ich besser mich mein Schatz!" (It was all a dream!)Ein Traum, ich versteh's einfach nichtWie oft musste ich jetzt schon im Regen steh'n für dich?Ich war blind, denn heute bist du nicht mehr die von damalsWas soll der Scheiß? du hast gewusst, ich werd' kein Zahnarzt!Auch wenn du nichts von mir hältst, ich trage dichNoch immer tief in meinem Herzen, guck wie warm es istIch kann vergeben, doch du hast mich vergessenDu bist wie ein Fluch - ich bin besessen[Hook]Ich kann vergeben, doch nicht vergessenDu warst mein Mädchen, ich war besessenEs sind die Trän'n, die für sich sprechenIch will endlich wieder leben, lass die Sonne in den Regen, glaub mirIch kann vergeben, doch nicht vergessenDu warst mein Mädchen, ich war besessenEs sind die Trän'n, die für sich sprechenIch will endlich wieder leben, lass die Sonne in den Regen, glaub mir
-[Bridge]Früher warst du dieser süße TraumHeute nur ein hübscher AlbtraumUnd ich hoffe, ich wach bald aufViel zu lange hab' ich auf dich gewartetIch wollte schon aufhör'n zu atmen!Früher warst du dieser süße TraumHeute nur ein hübscher AlbtraumUnd ich hoffe, ich wach bald aufViel zu lange hab ich auf dich gewartetIch lass dich los, es ist aus auch wenn's hart ist[Hook]Ich kann vergeben, doch nicht vergessenDu warst mein Mädchen, ich war besessenEs sind die Trän'n, die für sich sprechenIch will endlich wieder leben, lass die Sonne in den Regen, glaub mirIch kann vergeben, doch nicht vergessenDu warst mein Mädchen, ich war besessenEs sind die Trän'n, die für sich sprechenIch will endlich wieder leben, lass die Sonne in den Regen, glaub mir</t>
+          <t>[Songtext zu „Alles wird gut“]
+[Part 1]
+Yeah!
+Dieses Leben ist nicht immer dankbar, nein
+Dieses Leben ist nicht immer leicht
+Und manchmal denkst du, du bist ganz allein
+Und du begreifst nun, dass jeder auf dich scheißt
+Und du lässt jetzt deine Tränen raus und weinst
+Jeder versucht dir deine Träume auszureden
+Weil sie hoffen, dass du anfängst aufzugeben
+Und du fragst dich: Wann hört er bloß auf, der Regen?
+Können sie's einfach nicht lassen, auf dich draufzutreten?
+Du spürst die Blicke und du weißt, du bist hier nicht willkommen, hier nicht willkommen
+Weil du hier keine Liebe bekommst
+Dieser Beton nennt sich 'Leben', Junge
+Und das sind Kopfschmerzen
+Und dieser Kopfschmerz lässt dich in 'nem Loch sterben
+Und keiner antwortet dir
+Ich bin wie du und du wie ich - es gibt eine Handvoll wie wir
+Denn morgen ist ein neuer Tag, hör auf dein Herz und versuch's
+Aber glaub mir: Alles wird gut
+[Hook]
+Und wenn sie meinen du stehst nie wieder auf - dann lass sie reden
+Junge, zeig ihnen, das ist dein Traum - du wirst ihn leben
+Und beweis' diesen Leuten, die niemals an dich geglaubt haben:
+Das, was sie haben, kannst du auch haben
+Denn wenn sie meinen, du hast hier nix verloren, dann zeig es ihn'!
+Zeig es allen, keiner hält dich mehr auf
+Komm, lass dich fallen
+Heb' den Kopf und blick einfach nach vorn' und jetzt versuch's
+Ich sag', versuch's! Alles wird gut!
+[Part 2]
+Alles wird gut, Mann
+Du schaffst das schon
+Du bist den Neid und den Hass gewohnt aber du hast Herz
+Wann wird das belohnt?
+Und dieser Weg ist ein verdammtes Labyrinth
+Du hast Träume obwohl Schlafwandeln dir nix bringt
+Hör auf dein' Instinkt,hör nicht auf die Leute, die reden
+Denn du siehst selbst, dass deine Freunde hier stehenSei deinen Freunden nah, doch deinen Feinden noch näher
+Vergessen ist einfach, doch verzeihen ist schwerer
+Bleib wie du bist, auch wenn sie sagen, dass du nix bist
+Mach es für dich, glaub mir, Mann, sonst packst du es nicht
+Und packst du es nicht, ja, dann scheißen alle auf dich
+Dann bist du alles und nix und vor allem ein Witz
+Lass dich nicht runterziehen, lass dich nicht unterkriegenSie hab'n das gleiche Ziel, sind selber unzufrieden
+Auch wenn es hart ist
+Wir werden alle Helden sein, auch wenn es nur für ein' Tag ist, yeah!
+[Hook]
+Und wenn sie meinen du stehst nie wieder auf - dann lass sie reden
+Junge, zeig ihnen das ist dein Traum - du wirst ihn leben
+Und beweis diesen Leuten, die niemals an dich geglaubt haben:
+Das, was sie haben, kannst du auch haben
+Denn wenn sie meinen, du hast hier nix verloren, dann zeig es ihn'!
+Zeig es allen, keiner hält dich mehr auf, komm, lass dich fallen
+Heb den Kopf und blick einfach nach vorn und jetzt versuch's
+Ich sag', versuch's! Alles wird gut!
+[Bridge]
+Und bist du unten, drücken sie dich noch ein Stück tieferNoch ein Stück tiefer, noch ein Stück tiefer
+Steh', steh' jetzt auf und zeig ihn' wer du bist, dennBist du erst weg, dann weint keiner mehr um dich
+Und bist du unten, drücken sie dich noch ein Stück tieferNoch ein Stück tiefer, noch ein Stück tiefer
+Steh', steh' jetzt auf und zeig ihn' wer du bist, dennBist du erst weg, dann weint keiner mehr um dich
+[Hook]
+Und wenn sie meinen du stehst nie wieder auf - dann lass sie reden
+Junge, zeig ihnen das ist dein Traum - du wirst ihn leben
+Und beweis diesen Leuten, die niemals an dich geglaubt haben:
+Das, was sie haben, kannst du auch haben
+Denn wenn sie meinen, du hast hier nix verloren, dann zeig es ihn'!
+Zeig es allen, keiner hält dich mehr auf, komm, lass dich fallen
+Heb den Kopf und blick einfach nach vorn und jetzt versuch's
+Ich sag', versuch's! Alles wird gut!</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-vergeben-and-vergessen-lyrics</t>
+          <t>https://genius.com/Bushido-alles-wird-gut-lyrics</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -789,7 +1235,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ich lass dich gehen</t>
+          <t>Vergeben &amp; Vergessen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -799,13 +1245,80 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Verse 1: Bushido]Ich seh du trauerst, ich habe dich verlassenEs ist nicht einfach zu verkraftenJa, wir hatten gute Zeiten, und die schlechten ZeitenWenn du jetzt einschläfst, seh' ich dich im Bett hier leidenEs tut mir unfassbar Leid, doch was soll ich tun?Es ist so geschrieben, die Beziehung sollte ruhn'Und ich erinner' mich gern an die Tage die so schön warnGlaubst du mir, dass ich dich schon immer wunderschön fand?Ich war jeden Tag bei dir und du bei mirJetzt bin ich weg, doch ich bin immer noch bei dirSag, kannst du mich hör'n, mein Hass beginntWenn ich dran denk, dass ein Typ mal meinen Platz einnimmtVerdammt, ich brauch es nicht erklären, ich brauch dich so sehrOhne dich scheint die Welt da draußen so leerDoch ich kann nichts dran ändern, ich wär so gern bei dirIch muss lern' zu akzeptiern'[Hook]So schwer es mir auch fälltJetzt Abschied von dir zu nehmenIch lass dich gehenIch dank' dir für die schöne ZeitIch hoffDass wir uns wiedersehen
-[Verse 2: Bushido]Mir fällt das Loslassen schwer, ich folg dir überall hinAlles erinnert dich an mich, ich stecke überall drinIch seh dich nachts, wenn du träumst, wenn du aufstehst und frühstückstKüss deine Stirn, wenn du schläfst, doch du fühlst nichtsIch bemüh' mich da zu sein, es fällt mir schwerDir jetzt nah zu seinEin Tag allein ein Tag mir dir, was würd' ich dafür gebenSchau dir nicht meine Fotos an, es würde dich nur quäln'Und gib jetzt Gott nicht die Schuld, dass du allein bistGib Gott nicht die Schuld, wenn du verzweifelstDu erreichst nichts mit dieser Trauer in dirTu was für dich, tu was gegen diese Mauer in dirUnd es zerreißt mich, wenn du dann vor mir kniestDie Blumen niederlegst und die Antwort nicht kriegstDenn jedes Jahr, an diesem TagFällt von dir eine Träne auf das Grab2x [Hook]</t>
+          <t>[Part 1]
+Du hast geleuchtet für mich am Himmel, du warst so wunderbar
+Versucht mir meinen Weg zu zeigen, als es dunkel war
+Mich vor der Welt beschützt, weil die Welt so schlecht ist
+Hab' ich's dir nicht gesagt? Meine Welt ist hässlich
+Trotzdem hatte ich Angst, du würdest wieder geh'n
+Denn dieses Leben, das ich lebe das will niemand seh'n!
+Und du hast aufgepasst, denn ich hab' schlecht geträumt
+Du hast für mich gekämpft damals, wie ein echter Freund!
+Jedes Mal, wenn ich nachts depressiv war
+Als sie meinten: „Warum ist der Spaßt schwer erziehbar?"
+Warst du für mich da, hast meine Trän'n aufgefang'n
+Wir wussten es, wir geh'n auch erst dann wenn unser Herz nicht mehr schlägt
+Sich diese Welt nicht mehr dreht, weil alles dann mit Wert nicht mehr zählt
+Und ich warte noch auf dich, bitte sag jetzt einfach nichts, die Narben sind zu frisch
+[Hook]
+Ich kann vergeben, doch nicht vergessen
+Du warst mein Mädchen, ich war besessen
+Es sind die Trän'n, die für sich sprechen
+Ich will endlich wieder leben, lass die Sonne in den Regen, glaub mir
+Ich kann vergeben, doch nicht vergessen
+Du warst mein Mädchen, ich war besessen
+Es sind die Trän'n, die für sich sprechen
+Ich will endlich wieder leben, lass die Sonne in den Regen, glaub mir
+[Part 2]
+Von wegen Zeiten ändern sich, Zeiten ändern dich!
+Es wurd' dir viel zu viel, auf einmal kam: „Ich kenn' das nicht!"
+Und dein Verständnis wurde plötzlich mein Gefängnis
+Ich wusste, dass mein Leben dir zu fremd ist
+Er ist verschwunden, der Glanz in deinem Blick
+Auf einmal wolltest du nur anders sein als ich!
+Dich aufgeben? Daran hätt' ich nicht gedacht
+Hab' so oft gesagt: „Ich besser mich mein Schatz!" (It was all a dream!)
+Ein Traum, ich versteh's einfach nicht
+Wie oft musste ich jetzt schon im Regen steh'n für dich?
+Ich war blind, denn heute bist du nicht mehr die von damals
+Was soll der Scheiß? du hast gewusst, ich werd' kein Zahnarzt!
+Auch wenn du nichts von mir hältst, ich trage dich
+Noch immer tief in meinem Herzen, guck wie warm es ist
+Ich kann vergeben, doch du hast mich vergessen
+Du bist wie ein Fluch - ich bin besessen
+[Hook]
+Ich kann vergeben, doch nicht vergessen
+Du warst mein Mädchen, ich war besessen
+Es sind die Trän'n, die für sich sprechen
+Ich will endlich wieder leben, lass die Sonne in den Regen, glaub mir
+Ich kann vergeben, doch nicht vergessen
+Du warst mein Mädchen, ich war besessen
+Es sind die Trän'n, die für sich sprechen
+Ich will endlich wieder leben, lass die Sonne in den Regen, glaub mir
+[Bridge]
+Früher warst du dieser süße TraumHeute nur ein hübscher Albtraum
+Und ich hoffe, ich wach bald auf
+Viel zu lange hab' ich auf dich gewartet
+Ich wollte schon aufhör'n zu atmen!
+Früher warst du dieser süße Traum
+Heute nur ein hübscher Albtraum
+Und ich hoffe, ich wach bald auf
+Viel zu lange hab ich auf dich gewartet
+Ich lass dich los, es ist aus auch wenn's hart ist
+[Hook]
+Ich kann vergeben, doch nicht vergessen
+Du warst mein Mädchen, ich war besessen
+Es sind die Trän'n, die für sich sprechen
+Ich will endlich wieder leben, lass die Sonne in den Regen, glaub mir
+Ich kann vergeben, doch nicht vergessen
+Du warst mein Mädchen, ich war besessen
+Es sind die Trän'n, die für sich sprechen
+Ich will endlich wieder leben, lass die Sonne in den Regen, glaub mir</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-ich-lass-dich-gehen-lyrics</t>
+          <t>https://genius.com/Bushido-vergeben-and-vergessen-lyrics</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -844,7 +1357,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Öffne uns die Tür</t>
+          <t>Ich lass dich gehen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -854,14 +1367,53 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Part 1: Kay One]Ich war kein guter MenschIch weiß was ich gemacht hab, getan habOh Vater, irgendwann ist Zahltag, dann war‘s dasIch sag, dass ich nicht immer gut war, nicht treu warNicht nett war, nicht immer war Respekt daIch checks grad. Der BettlerDer hier so durchnässt da im Dreck saßIch schätz mal, dass es nur ein Test warIch Drecksack, ich Depp Mann, hab es nicht kapiertIch bin jung, dumm, vergib mirVergib mir meine Schuld. Ich hab zu viel riskiert hierJa ich hab geklaut, hab gedealt, doch ich lüg nichtHör vom Paradies und ich weiß ich verdien‘s nichtMama hat geweint und bei Gott ja mir tut‘s leidDie Schulzeit hab ich nicht genutzt. Ich wollt cool seinGras raus, Geld her, die ganze Polizei kamIch dachte ich verreiß dannDoch sie haben‘s gepeilt MannLieber Gott ich bereu die SündenMeine Taten, lass mich in den Garten[Hook: Bushido &amp; Kay One]Öffne uns die Tür! Gibt es einen Platz da oben?Wir verlieren, langsam schon den GlaubenDass Leute so wie wir überhaupt willkommen sindDoch wir probieren’s! I wonder if heaven got a ghettoSag mir, gibt es einen Platz da oben?Wir verlieren langsam schon den GlaubenDass Leute so wie wir überhaupt willkommen sindDoch wir probieren‘s, I wonder if heaven got a ghetto
-[Part 2: Bushido]Ob es ein Ghetto gibt, ob es einen Platz da gibtEntschuldigung Mama, womit hast du das verdient?So krass beliebt war ich in meiner Kindheit nichtGras rauchen war OK, aber Kind sein nichtIch weiß alles macht dann irgendwann ein‘ SinnFühlte mich oft, einfach unverstanden als KindDer liebe Gott konnte meine Sünden nicht zählenIch würde gern die Zukunft sehnDoch mich hindern die TränenEs tut mir unwahrscheinlich leidWir reden oft vom ParadiesIch weiß du lässt uns doch garnicht reinWie dumm kann man nur sein?Wir haben gelacht und geweintHeute dreh ich meine runden ganz alleinVerlange ich zu viel, wenn ich sag hab erbarmen?Ich hab Angst davor 'ne Ewigkeit den Sarg anzustarrenUnd ich bete, bitte bring mich da reinIch nehm den Platz auch in den hinteren Reihen![Hook: Bushido &amp; Kay One]Öffne uns die Tür! Gibt es einen Platz da oben?Wir verlieren, langsam schon den GlaubenDass Leute so wie wir überhaupt willkommen sindDoch wir probieren’s! I wonder if heaven got a ghettoSag mir, gibt es einen Platz da oben?Wir verlieren langsam schon den GlaubenDass Leute so wie wir überhaupt willkommen sindDoch wir probieren‘s, I wonder if heaven got a ghetto
-[Bridge: Bushido &amp; Kay One]Gute Jungs kommen in den Himmel, doch wo landen wir zwei?Warum wir so war'n ? Ihr habt uns nie verstanden alleinWar ich mein Leben lang trotz Fame, Frauen und MachtDas Ghetto im Blut, das ich nicht bedauere ist krass[Hook: Bushido &amp; Kay One]Öffne uns die Tür! Gibt es einen Platz da oben?Wir verlieren, langsam schon den GlaubenDass Leute so wie wir überhaupt willkommen sindDoch wir probieren’s! I wonder if heaven got a ghettoSag mir, gibt es einen Platz da oben?Wir verlieren langsam schon den GlaubenDass Leute so wie wir überhaupt willkommen sindDoch wir probieren‘s, I wonder if heaven got a ghetto</t>
+          <t>[Verse 1: Bushido]
+Ichsehdutrauerst,ichhabe dich verlassen
+Es ist nicht einfach zu verkraften
+Ja, wir hatten gute Zeiten, und die schlechtenZeiten
+Wenn du jetzt einschläfst, seh' ich dich im Bett hier leiden
+Es tut mir unfassbar Leid, doch was soll ich tun?
+Es ist so geschrieben, die Beziehung sollte ruhn'
+Und ich erinner' mich gern an die Tage die so schön warn
+Glaubst du mir, dass ich dich schon immer wunderschön fand?
+Ich war jeden Tag bei dir und du bei mir
+Jetzt bin ich weg, doch ich bin immer noch bei dir
+Sag, kannst du mich hör'n, mein Hass beginnt
+Wenn ich dran denk, dass ein Typ mal meinen Platz einnimmt
+Verdammt, ich brauch es nicht erklären, ich brauch dich so sehr
+Ohne dich scheint die Welt da draußen so leer
+Doch ich kann nichts dran ändern, ich wär so gern bei dir
+Ich muss lern' zu akzeptiern'
+[Hook]
+So schwer es mir auch fällt
+Jetzt Abschied von dir zu nehmen
+Ich lass dich gehen
+Ich dank' dir für die schöne Zeit
+Ich hoff
+Dass wir uns wiedersehen
+[Verse 2: Bushido]
+Mir fällt das Loslassen schwer, ich folg dir überall hin
+Alles erinnert dich an mich, ich stecke überall drin
+Ich seh dich nachts, wenn du träumst, wenn du aufstehst und frühstückst
+Küss deine Stirn, wenn du schläfst, doch du fühlst nichts
+Ich bemüh' mich da zu sein, es fällt mir schwer
+Dir jetzt nah zu sein
+Ein Tag allein ein Tag mir dir, was würd' ich dafür geben
+Schau dir nicht meine Fotos an, es würde dich nur quäln'
+Und gib jetzt Gott nicht die Schuld, dass du allein bist
+Gib Gott nicht die Schuld, wenn du verzweifelst
+Du erreichst nichts mit dieser Trauer in dir
+Tu was für dich, tu was gegen diese Mauer in dir
+Und es zerreißt mich, wenn du dann vor mir kniest
+Die Blumen niederlegst und die Antwort nicht kriegst
+Denn jedes Jahr, an diesem Tag
+Fällt von dir eine Träne auf das Grab
+2x [Hook]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-offne-uns-die-tur-lyrics</t>
+          <t>https://genius.com/Bushido-ich-lass-dich-gehen-lyrics</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -900,7 +1452,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Es tut mir so leid</t>
+          <t>Öffne uns die Tür</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -910,14 +1462,78 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Part 1]Ich war grade 23, sie war erst 18Wir waren beide frisch verliebt, es tut so krass wehErinner' mich zurück, ich wollt' die Welt sehenIch wollte Spaß haben, wollte Geld zählenHatte kein'n Job, war noch so grün hinter den OhrenHab' früh die Perspektive hier verlorenImmer draußen am gammeln, nichts tunSelbst meine Mutter fand was ich tat nicht coolJeden Tag Sex, es war so schön, wir war'n jung, frei und zugedröhntJeden Tag nur Partys, Verantwortung gab's nichtDoch ich wusste, das Schicksal bestraft michEs hat geklingelt an der Tür, sie hat gesagt: „Schatz, mach auf, ich frier'.“Ich konnt' an ihrem Blick erkenn'n, was passiert istUnd in dem Augenblick wusst' ich, ich verlier' dich[Hook]Es tut mir so leid (Ja, es tut mir so leid)Und ich wünsche mir nichts (Und ich wünsche mir nichts)Nur, dass dieser Brief (Nur, dass dieser Brief)Dich irgendwann erreicht (Dich irgendwann erreicht)Ja, es tut mir so leid (Ja, es tut mir so leid)Und ich wünsche mir nichts (Nein, ich wünsche mir nichts)Nur, dass du mir verzeihst (Nur, dass du mir verzeihst)Und ich bete für dich (Ja, ich bete für dich)
-[Part 2]Deine Mutter hatte Angst, jetzt dachte sieDass sie dir nicht das geben kann, was du verdienstSie hatte selber keine Lehre, kein'n AbschlussUnd dieser Traum vom Glücklich sein war im AbflussIhre Eltern hat es gar nicht interessiertDenn sie waren von uns eh nicht fasziniertKein'n Job, keine Wohnung, kein nichtsSie hat gefleht: „Nein, ich schaff's allein nicht!“Ich hab' gesagt: „Ich bin da, wir schaffen das!“Ja, und dann hab' ich Gras vertickt in der NachbarschaftIch hab' geschworen, ja, ich werde für uns da seinDu warst noch nicht mal da, doch hattest ein SparschweinEines Tages klingelt das Telefon, ich hör' sie schluchzenDann komm'n die Trän'n hoch, sie hat gesagt : „Es tut mir leid, Schatz, ich lieb' dich. Ich war in der Abtreibungsklinik.“[Hook]Es tut mir so leid (Ja, es tut mir so leid)Und ich wünsche mir nichts (Und ich wünsche mir nichts)Nur, dass dieser Brief (Nur, dass dieser Brief)Dich irgendwann erreicht (Dich irgendwann erreicht)Ja, es tut mir so leid (Ja, es tut mir so leid)Und ich wünsche mir nichts (Nein, ich wünsche mir nichts)Nur, dass du mir verzeihst (Nur, dass du mir verzeihst)Und ich bete für dich (Ja, ich bete für dich)
-[Bridge]Kannst du mich hör'n? Bitte vergib uns unsre SchuldMeine Trän'n beweisen dir mein'n tiefen SchmerzUnd mich quälen die vielen Schuldgefühle, ich will, dass ich frei binIch will, dass ich wieder mit ihm vereint bin, bitteBitte, bitte vergib uns unsre SchuldMeine Trän'n beweisen dir mein'n tiefen SchmerzUnd mich quälen die vielen Schuldgefühle, ich will, dass ich frei binIch will, dass ich wieder mit ihm vereint bin[Hook]Es tut mir so leid (Ja, es tut mir so leid)Und ich wünsche mir nichts (Und ich wünsche mir nichts)Nur, dass dieser Brief (Nur, dass dieser Brief)Dich irgendwann erreicht (Dich irgendwann erreicht)Ja, es tut mir so leid (Ja, es tut mir so leid)Und ich wünsche mir nichts (Nein, ich wünsche mir nichts)Nur, dass du mir verzeihst (Nur, dass du mir verzeihst)Und ich bete für dich (Ja, ich bete für dich)</t>
+          <t>[Part 1: Kay One]
+Ich war kein guter Mensch
+Ich weiß was ich gemacht hab, getan hab
+Oh Vater, irgendwann ist Zahltag, dann war‘s das
+Ich sag, dass ich nicht immer gut war, nicht treu war
+Nicht nett war, nicht immer war Respekt da
+Ich checks grad. Der Bettler
+Der hier so durchnässt da im Dreck saß
+Ich schätz mal, dass es nur ein Test war
+Ich Drecksack, ich Depp Mann, hab es nicht kapiert
+Ich bin jung, dumm, vergib mir
+Vergib mir meine Schuld. Ich hab zu viel riskiert hier
+Ja ich hab geklaut, hab gedealt, doch ich lüg nicht
+Hör vom Paradies und ich weiß ich verdien‘s nicht
+Mama hat geweint und bei Gott ja mir tut‘s leid
+Die Schulzeit hab ich nicht genutzt. Ich wollt cool sein
+Gras raus, Geld her, die ganze Polizei kam
+Ich dachte ich verreiß dann
+Doch sie haben‘s gepeilt Mann
+Lieber Gott ich bereu die Sünden
+Meine Taten, lass mich in den Garten
+[Hook: Bushido &amp;Kay One]
+Öffne uns die Tür! Gibt es einen Platz da oben?
+Wir verlieren, langsam schon den Glauben
+Dass Leute so wie wir überhaupt willkommen sind
+Doch wir probieren’s! I wonder if heaven got a ghetto
+Sag mir, gibt es einen Platz da oben?
+Wir verlieren langsam schon den Glauben
+Dass Leute so wie wir überhaupt willkommen sind
+Doch wir probieren‘s, I wonder if heaven got a ghetto
+[Part 2: Bushido]
+Ob es ein Ghetto gibt, ob es einen Platz da gibt
+Entschuldigung Mama, womit hast du das verdient?
+So krass beliebt war ich in meiner Kindheit nicht
+Gras rauchen war OK, aber Kind sein nicht
+Ich weiß alles macht dann irgendwann ein‘ Sinn
+Fühlte mich oft, einfach unverstanden als Kind
+Der liebe Gott konnte meine Sünden nicht zählen
+Ich würde gern die Zukunft sehn
+Doch mich hindern die Tränen
+Es tut mir unwahrscheinlich leid
+Wir reden oft vom Paradies
+Ich weiß du lässt uns doch garnicht rein
+Wie dumm kann man nur sein?
+Wir haben gelacht und geweint
+Heute dreh ich meine runden ganz allein
+Verlange ich zu viel, wenn ich sag hab erbarmen?
+Ich hab Angst davor 'ne Ewigkeit den Sarg anzustarren
+Und ich bete, bitte bring mich da rein
+Ich nehm den Platz auch in den hinteren Reihen!
+[Hook: Bushido &amp; Kay One]
+Öffne uns die Tür! Gibt es einen Platz da oben?
+Wir verlieren, langsam schon den Glauben
+Dass Leute so wie wir überhaupt willkommen sind
+Doch wir probieren’s! I wonder if heaven got a ghetto
+Sag mir, gibt es einen Platz da oben?Wir verlieren langsam schon den GlaubenDass Leute so wie wir überhaupt willkommen sindDoch wir probieren‘s, I wonder if heaven got a ghetto
+[Bridge: Bushido &amp; Kay One]
+Gute Jungs kommen in den Himmel, doch wo landen wir zwei?
+Warum wir so war'n ? Ihr habt uns nie verstanden allein
+War ich mein Leben lang trotz Fame, Frauen und Macht
+Das Ghetto im Blut, das ich nicht bedauere ist krass
+[Hook: Bushido &amp; Kay One]
+Öffne uns die Tür! Gibt es einen Platz da oben?
+Wir verlieren, langsam schon den Glauben
+Dass Leute so wie wir überhaupt willkommen sind
+Doch wir probieren’s! I wonder if heaven got a ghetto
+Sag mir, gibt es einen Platz da oben?Wir verlieren langsam schon den GlaubenDass Leute so wie wir überhaupt willkommen sindDoch wir probieren‘s, I wonder if heaven got a ghetto</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-es-tut-mir-so-leid-lyrics</t>
+          <t>https://genius.com/Bushido-offne-uns-die-tur-lyrics</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -956,7 +1572,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Selina</t>
+          <t>Es tut mir so leid</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -966,14 +1582,78 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Part 1]Ey Selina, das hier wird mein allerletzter BriefJa ich weiß mein Verhalten war echt miesWir hatten beide diesen Traum, vereint seinDoch unterschieden hat uns leider unser LifestyleIch war ein drecks Kanacke, der sein Geld gemacht hatUnd genau das hatten deine Eltern längst sattSie wollten keinen am Tisch, der mit Drogen dealtDer Traum vom Schwiegersohn, wie soll er sein, so wie sieUnd hier am Block guckt keiner auf die TischmanierenDeinem Vater war ich scheiss egal und deshalb wollt' er mich blamierenIch vermiss dich so, vermiss die schöne zeitVermiss das Kiffen Baby und auch die VögeleiPlaystation und Ratten mehr konnt' ich dir nicht bietenDeine Eltern waren mit diesem Jungen nicht zufriedenEs ist traurig, ich fühl mich innerlich so leerSchau mich an, es ist immernoch so schwer[Hook]Lieber Gott kannst du mir sagen warum wollte sie nur gehen?Ich wart' so lang bis sich der Zeiger nicht mehr drehtJa warum wach' ich nachts auf und schreibe LiederEs ist wegen SelinaBitte lieber Gott, kannst du mir sagen warum hab ich sie verloren?Sag warum ist mein Herz schon wieder tiefgefroren?Ja warum wach ich Nachts auf und schreie wiederEs ist wegen Selina (Selina)
-[Part 2]Weißt du noch im Wohnzimmer auf diesem scheiß teuren TeppichDer Sex und ich dachte er wird dreckigPlötzlich ging die Türe auf und sie stand daUns war's scheiß egal, denn wir beide waren uns nahKeiner konnte uns was mir fehlt die Zeit so sehrÖffne mein Herz und du siehst, es ist einfach leerBin geschwächt und allein, ich will nicht lächerlich schein'nEin echter Mann gibt auch zu, dass er mal nächtelang weintSchau mich an, siehst du was aus mir wird?Was aus mir wird, was der hass jetzt bewirkt?Es tut weh, wenn mich deine Mutter einfach wegschicktSeh dich am Fenster, und dein Blick sagt: „Vergess mich!"Trauer, Hass, Schmerz und das LeidGib mir jedes mal ein Cent und ich wär schon längst reichSelina das hier wird mein allerletzter BriefMein herz, du kannst es behalten Rest in Peace[Hook]Lieber Gott kannst du mir sagen warum wollte sie nur gehen?Ich wart' so lang bis sich der Zeiger nicht mehr drehtJa warum wach' ich nachts auf und schreibe LiederEs ist wegen SelinaBitte lieber Gott, kannst du mir sagen warum hab ich sie verloren?Sag warum ist mein Herz schon wieder tiefgefroren?Ja warum wach ich Nachts auf und schreie wiederEs ist wegen Selina (Selina)
-[Bridge]Es tut weh, mit anzusehen ja wie alles hier kaputt gehtMit anzusehen, wie wir langsam vor dem Schluss stehenMit anzusehen, das hier alles Illusion warDoch sie war so nahAber es tut weh, mit anzusehen ja wie alles hier kaputt gehtMit anzusehen, wie wir langsam vor dem Schluss stehenMit anzusehen, das hier alles Illusion warDoch sie war so nah[Hook]Lieber Gott kannst du mir sagen warum wollte sie nur gehen?Ich wart' so lang bis sich der Zeiger nicht mehr drehtJa warum wach' ich nachts auf und schreibe LiederEs ist wegen SelinaBitte lieber Gott, kannst du mir sagen warum hab ich sie verloren?Sag warum ist mein Herz schon wieder tiefgefroren?Ja warum wach ich Nachts auf und schreie wiederEs ist wegen Selina (Selina)</t>
+          <t xml:space="preserve">[Part 1]
+Ich war grade 23, sie war erst 18
+Wir waren beide frisch verliebt, es tut so krass weh
+Erinner' mich zurück, ich wollt' die Welt sehen
+Ich wollte Spaß haben, wollte Geld zählen
+Hatte kein'n Job, war noch so grün hinter den Ohren
+Hab' früh die Perspektive hier verloren
+Immer draußen am gammeln, nichts tun
+Selbst meine Mutter fand was ich tat nicht cool
+Jeden Tag Sex, es war so schön, wir war'n jung, frei und zugedröhnt
+Jeden Tag nur Partys, Verantwortung gab's nicht
+Doch ich wusste, das Schicksal bestraft mich
+Es hat geklingelt an der Tür, sie hat gesagt: „Schatz, mach auf, ich frier'.“
+Ich konnt' an ihrem Blick erkenn'n, was passiert ist
+Und in dem Augenblick wusst' ich, ich verlier' dich
+[Hook]
+Es tut mir so leid (Ja, es tut mir so leid)
+Und ich wünsche mir nichts (Und ich wünsche mir nichts)
+Nur, dass dieser Brief (Nur, dass dieser Brief)
+Dich irgendwann erreicht (Dich irgendwann erreicht)
+Ja, es tut mir so leid (Ja, es tut mir so leid)
+Und ich wünsche mir nichts (Nein, ich wünsche mir nichts)
+Nur, dass du mir verzeihst (Nur, dass du mir verzeihst)
+Und ich bete für dich (Ja, ich bete für dich)
+[Part 2]
+Deine Mutter hatte Angst, jetzt dachte sie
+Dass sie dir nicht das geben kann, was du verdienst
+Sie hatte selber keine Lehre, kein'n Abschluss
+Und dieser Traum vom Glücklich sein war im Abfluss
+Ihre Eltern hat es gar nicht interessiert
+Denn sie waren von uns eh nicht fasziniert
+Kein'n Job, keine Wohnung, kein nichts
+Sie hat gefleht: „Nein, ich schaff's allein nicht!“
+Ich hab' gesagt: „Ich bin da, wir schaffen das!“
+Ja, und dann hab' ich Gras vertickt in der Nachbarschaft
+Ich hab' geschworen, ja, ich werde für uns da sein
+Du warst noch nicht mal da, doch hattest ein Sparschwein
+Eines Tages klingelt das Telefon, ich hör' sie schluchzen
+Dann komm'n die Trän'n hoch, sie hat gesagt : „Es tut mir leid, Schatz, ich lieb' dich. Ich war in der Abtreibungsklinik.“
+[Hook]
+Es tut mir so leid (Ja, es tut mir so leid)
+Und ich wünsche mir nichts (Und ich wünsche mir nichts)
+Nur, dass dieser Brief (Nur, dass dieser Brief)
+Dich irgendwann erreicht (Dich irgendwann erreicht)
+Ja, es tut mir so leid (Ja, es tut mir so leid)
+Und ich wünsche mir nichts (Nein, ich wünsche mir nichts)
+Nur, dass du mir verzeihst (Nur, dass du mir verzeihst)
+Und ich bete für dich (Ja, ich bete für dich)
+[Bridge]
+Kannst du mich hör'n? Bitte vergib uns unsre Schuld
+Meine Trän'n beweisen dir mein'n tiefen Schmerz
+Und mich quälen die vielen Schuldgefühle, ich will, dass ich frei bin
+Ich will, dass ich wieder mit ihm vereint bin, bitte
+Bitte, bitte vergib uns unsre Schuld
+Meine Trän'n beweisen dir mein'n tiefen Schmerz
+Und mich quälen die vielen Schuldgefühle, ich will, dass ich frei bin
+Ich will, dass ich wieder mit ihm vereint bin
+[Hook]
+Es tut mir so leid (Ja, es tut mir so leid)
+Und ich wünsche mir nichts (Und ich wünsche mir nichts)
+Nur, dass dieser Brief (Nur, dass dieser Brief)
+Dich irgendwann erreicht (Dich irgendwann erreicht)
+Ja, es tut mir so leid (Ja, es tut mir so leid)
+Und ich wünsche mir nichts (Nein, ich wünsche mir nichts)
+Nur, dass du mir verzeihst (Nur, dass du mir verzeihst)
+Und ich bete für dich (Ja, ich bete für dich)
+</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-selina-lyrics</t>
+          <t>https://genius.com/Bushido-es-tut-mir-so-leid-lyrics</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1012,7 +1692,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Steh auf</t>
+          <t>Selina</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1022,13 +1702,81 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Glashaus:Der mond schien in der nacht hellAm erten tage unseres fredenSo erblickte ich das schlachfeldUnd so so sah ich sie dann liegenIch eilte zu ihr und schrie,du kannst klagen und wein mit erschuternden schreinIch werde warten und schweigen aber bitte komm heimDu kannst tuhen was du will,du kannst wiederlich seinAbr du kannst da nicht liegen bleibenSteh auf...meine liebeSteh auf...um himmels willenBitte steh auf..bleib da nicht liegenSteh auf..ich bi so weit gegangen um dich zu findenBushido:Der nebel lichtet sichDer hauch verschwindetMit fällt auf wie trist es ist ich hab die schlacht gewonen du hast gesagt der krieg ist gift für mich doch schau mich an das hier ist meins hab mir geholt was mir gehört hät nie gedacht das dieser druck in meinem kopf so viel zerstörtEngel links,teufl rechts,engel schweigt,teuel spricht mein ziel verfolgt und dann gewonnen den ergeitz den bereut man nicht doch wo bist du ich rufe dich ich seh dich nicht un suche dich die krähen kreisen über mir die lachen und verfluchen mich ich schrei noch lauter hörst du nicht es st vergleich bar mit ner kerze die im wind im herz erlicht als ob in mir mein herz zerbricht sieh dich da liegen und ich wünscht das wär ein traum versuch dich wach zu rütteln doch du wachst nicht auf verdammt ich brauch dich steh aufGlashaus&amp;Bushido:Steh auf...meine liebeSteh auf...um himmels willenBitte steh auf..bleib da nicht liegenSteh auf..ich bin so weit gegangen um dich zu finden
-Yeah,die welt ist still und selbst der himmel weint wie wenn ein kind nach hilfe schreit du warst so wie gemalt guck wie das schicksal jetzt mein bild zereist ich will nur eins die zeit zurück ein kleines stück vom alten glück lass niemehr los schau ich hab dein gesicht an meinen hals gedrückt laufe weiter auch wenns schneit durch den wind und auf den eis ich spühre keine kälte halt für dich die schmerzen aus doch bleib bitte du kannst mich jetzt nicht alleine lassen wie soll ich das leid verkraften wie soll ich es hier bloß nu alleine schaffen ich bin so dumm was hab ich angestellt nur für mein ego küss dich und sag schatz es tut mir leid doch du zeigst keine regung ich weis nicht viel doch ich weis eins das ich dich bracuh ich fang dein letzten atemzug ich blick zu gott und sag hier bitte steh auf..</t>
+          <t>[Part 1]
+Ey Selina, das hier wird mein allerletzter Brief
+Ja ich weiß mein Verhalten war echt mies
+Wir hatten beide diesen Traum, vereint sein
+Doch unterschieden hat uns leider unser Lifestyle
+Ich war ein drecks Kanacke, der sein Geld gemacht hat
+Und genau das hatten deine Eltern längst satt
+Sie wollten keinen am Tisch, der mit Drogen dealt
+Der Traum vom Schwiegersohn, wie soll er sein, so wie sie
+Und hier am Block guckt keiner auf die Tischmanieren
+Deinem Vater war ich scheiss egal und deshalb wollt' er mich blamieren
+Ich vermiss dich so, vermiss die schöne zeit
+Vermiss das Kiffen Baby und auch die Vögelei
+Playstation und Ratten mehr konnt' ich dir nicht bieten
+Deine Eltern waren mit diesem Jungen nicht zufrieden
+Es ist traurig, ich fühl mich innerlich so leer
+Schau mich an, es ist immernoch so schwer
+[Hook]
+Lieber Gott kannst du mir sagen warum wollte sie nur gehen?
+Ich wart' so lang bis sich der Zeiger nicht mehr dreht
+Ja warum wach' ich nachts auf und schreibe Lieder
+Es ist wegen Selina
+Bitte lieber Gott, kannst du mir sagen warum hab ich sie verloren?
+Sag warum ist mein Herz schon wieder tiefgefroren?
+Ja warum wach ich Nachts auf und schreie wieder
+Es ist wegen Selina (Selina)
+[Part 2]
+Weißt du noch im Wohnzimmer auf diesem scheiß teuren Teppich
+Der Sex und ich dachte er wird dreckig
+Plötzlich ging die Türe auf und sie stand da
+Uns war's scheiß egal, denn wir beide war'n uns nah
+Keiner konnte uns was mir fehlt die Zeit so sehr
+Öffne mein Herz und du siehst, es ist einfach leer
+Bin geschwächt und allein, ich will nicht lächerlich schein'n
+Ein echter Mann gibt auch zu, dass er mal nächtelang weint
+Schau mich an, siehst du was aus mir wird?
+Was aus mir wird, was der Hass jetzt bewirkt?
+Es tut weh, wenn mich deine Mutter einfach wegschickt
+Seh' dich am Fenster, und dein Blick sagt: „Vergess mich!"
+Trauer, Hass, Schmerz und das Leid
+Gib mir jedes mal ein Cent und ich wär schon längst reich
+Selina das hier wird mein allerletzter Brief
+Mein herz, du kannst es behalten Rest in Peace
+[Hook]
+Lieber Gott kannst du mir sagen warum wollte sie nur gehen?
+Ich wart' so lang bis sich der Zeiger nicht mehr dreht
+Ja warum wach' ich nachts auf und schreibe Lieder
+Es ist wegen Selina
+Bitte lieber Gott, kannst du mir sagen warum hab ich sie verloren?
+Sag warum ist mein Herz schon wieder tiefgefroren?
+Ja warum wach ich Nachts auf und schreie wieder
+Es ist wegen Selina (Selina)
+[Bridge]
+Es tut weh, mit anzuseh'n, ja wie alles hier kaputt geht
+Mit anzuseh'n, wie wir langsam vor dem Schluss steh'n
+Mit anzusehen, dass hier alles Illusion war
+Doch sie war so nah
+Aber es tut weh, mit anzuseh'n, ja wie alles hier kaputt geht
+Mit anzuseh'n, wie wir langsam vor dem Schluss steh'n
+Mit anzuseh'n, dass hier alles Illusion war
+Doch sie war so nah
+[Hook]
+Lieber Gott kannst du mir sagen warum wollte sie nur gehen?
+Ich wart' so lang bis sich der Zeiger nicht mehr dreht
+Ja warum wach' ich nachts auf und schreibe Lieder
+Es ist wegen Selina
+Bitte lieber Gott, kannst du mir sagen warum hab ich sie verloren?
+Sag warum ist mein Herz schon wieder tiefgefroren?
+Ja warum wach ich Nachts auf und schreie wieder
+Es ist wegen Selina (Selina)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-steh-auf-lyrics</t>
+          <t>https://genius.com/Bushido-selina-lyrics</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1067,7 +1815,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nur für Dich (Mama)</t>
+          <t>Steh auf</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1077,14 +1825,35 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Part 1]Ich schreib' mit Blut diesen Text, ich hoff', du merkst dasDie Einzige, von der ich jemals was gelernt hab'Ich danke dir so sehr, dass du da warstSelbst dass du von diesem Drogenscheiß erfahren hastSchönheit ist vergänglich, ich behaupte das GegenteilDenn Mama bleibt die schönste Frau hier auf LebenszeitDu warst immer da, als ich dich gebraucht hab'Der einzige Mensch, dem ich alles anvertraut hab'Dir ist egal, ob ich hart oder weich binArm oder Reich bin, für dich bin ich nur dein KindEs war schon immer so, so ein großes HerzHat keine andere Frau, du bist mir so viel WertDu hast dein'n Sohn ernährt und das sind keine SprücheDu kochst auch besser, als jede fünf Sterne KücheDu bist für mich die schönste Frau auf dieser WeltMein Licht, dass ich brauch', ich verlaufe mich so schnell[Hook]Und wenn du möchtest, hol' ich dir jeden Stern vom HimmelKein Weg ist mir zu weit, guck, ich springe nur für dichIn jeden Abgrund dieser ErdeWeil ich weiß, du würdest das Selbe tun, MamaWenn du möchtest, hol' ich dir jeden Stern vom HimmelKein Weg ist mir zu weit, guck, ich springe nur für dichIn jeden Abgrund dieser ErdeWeil ich weiß, du würdest das Selbe tun, Mama
-[Part 2]Plötzlich bist du krank geworden, ich dacht', ich bring' mich umFür dich hab' ich den Song geschrieben, für immer jungUnd sei nicht traurig, Kopf hoch, wir schaffen dasUnd nächsten Sommer chillen wir auf der Terrasse abAlles wird gut, du bleibst eine starke Frau, haargenauIch bin da, also hab VertrauenDu weißt genau, ich hab' dich nie im Stich gelassenSoll ich dir mal was sagen? Ich wurd' durch dich erwachsenUnd schau dir Sercan an, er wird bald GeschäftsmannTrotzdem keine Disco, Arschkarte, Pech manIch mach' nur Spaß, Mama, du kennst michUnd gehe ich auch manchmal zu weit, brems michDenk nicht, dass ich dich jemals allein lass'Ich weiß, unser Leben war nicht einfachIch liebe dich, ich würde alles für dich tunFür dich gib ich mein letztes Hemd und den Ruhm, Mama[Hook]Und wenn du möchtest, hol' ich dir jeden Stern vom HimmelKein Weg ist mir zu weit, guck, ich springe nur für dichIn jeden Abgrund dieser ErdeWeil ich weiß, du würdest das Selbe tun, MamaWenn du möchtest, hol' ich dir jeden Stern vom HimmelKein Weg ist mir zu weit, guck, ich springe nur für dichIn jeden Abgrund dieser ErdeWeil ich weiß, du würdest das Selbe tun, Mama
-[Outro]Und wenn du möchtest, hol' ich dir jeden Stern vom HimmelKein Weg ist mir zu weit, guck, ich springe nur für dichIn jeden Abgrund dieser ErdeWeil ich weiß, du würdest das Selbe tun, MamaWenn du möchtest, hol' ich dir jeden Stern vom HimmelKein Weg ist mir zu weit, guck, ich springe nur für dichIn jeden Abgrund dieser ErdeWeil ich weiß, du würdest das Selbe tun, Mama</t>
+          <t>Glashaus:
+Der mond schien in der nacht hell
+Am erten tage unseres freden
+So erblickte ich das schlachfeld
+Und so so sah ich sie dann liegen
+Ich eilte zu ihr und schrie,du kannst klagen und wein mit erschuternden schrein
+Ich werde warten und schweigen aber bitte komm heim
+Du kannst tuhen was du will,du kannst wiederlich sein
+Abr du kannst da nicht liegen bleiben
+Steh auf...meine liebe
+Steh auf...um himmels willen
+Bitte steh auf..bleib da nicht liegen
+Steh auf..ich bi so weit gegangen um dich zu finden
+Bushido:
+Der nebel lichtet sich
+Der hauch verschwindet
+Mit fällt auf wie trist es ist ich hab die schlacht gewonen du hast gesagt der krieg ist gift für mich doch schau mich an das hier ist meins hab mir geholt was mir gehört hät nie gedacht das dieser druck in meinem kopf so viel zerstört
+Engel links,teufl rechts,engel schweigt,teuel spricht mein ziel verfolgt und dann gewonnen den ergeitz den bereut man nicht doch wo bist du ich rufe dich ich seh dich nicht un suche dich die krähen kreisen über mir die lachen und verfluchen mich ich schrei noch lauter hörst du nicht es st vergleich bar mit ner kerze die im wind im herz erlicht als ob in mir mein herz zerbricht sieh dich da liegen und ich wünscht das wär ein traum versuch dich wach zu rütteln doch du wachst nicht auf verdammt ich brauch dich steh auf
+Glashaus&amp;Bushido:
+Steh auf...meine liebe
+Steh auf...um himmels willen
+Bitte steh auf..bleib da nicht liegen
+Steh auf..ich bin so weit gegangen um dich zu finden
+Yeah,die welt ist still und selbst der himmel weint wie wenn ein kind nach hilfe schreit du warst so wie gemalt guck wie das schicksal jetzt mein bild zereist ich will nur eins die zeit zurück ein kleines stück vom alten glück lass niemehr los schau ich hab dein gesicht an meinen hals gedrückt laufe weiter auch wenns schneit durch den wind und auf den eis ich spühre keine kälte halt für dich die schmerzen aus doch bleib bitte du kannst mich jetzt nicht alleine lassen wie soll ich das leid verkraften wie soll ich es hier bloß nu alleine schaffen ich bin so dumm was hab ich angestellt nur für mein ego küss dich und sag schatz es tut mir leid doch du zeigst keine regung ich weis nicht viel doch ich weis eins das ich dich bracuh ich fang dein letzten atemzug ich blick zu gott und sag hier bitte steh auf..</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-nur-fur-dich-mama-lyrics</t>
+          <t>https://genius.com/Bushido-steh-auf-lyrics</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1123,7 +1892,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Battle on the Rockz</t>
+          <t>Nur für Dich (Mama)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1133,15 +1902,72 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Hook: Fler]Ich komm in den Club, das ist mein RevierDoch die Straße sie, bleibt ein Teil von mirLeute schauen mich an, nur weil ich nicht tanz'Doch ich scheiße auf, ihre AkzeptanzDrück auf Play wenn wir kommen, drück auf Stop! (Drück auf Stop)Dann Repeat pump den Sound, oh mein Gott (Oh mein Gott)Was ich trink, ich will Battle on the Rockz (On the Rockz)Ruf die Bullen, weil der Rapper dich jetzt boxt (Dich jetzt boxt)[Part 1: Fler]Carlo Cokxxx, Flavour am StartAn alle Wichser, Homos, Hater das warsIch klär Bitches heut Nacht, mit Kay One im ClubUnd ich Filme mit der Cam wie sie schnell kommt und schlucktWer ich bin? Frank White, der Playboy im HoodSchon als Kind machte ich dein Gameboy kaputtScheiß auf Spielzeug und TetrisDeine Gang sind vier Toys du redest, zuviel jetzt gibt's PenisIhr könnt nichts außer nichts, nur kopieren und zu labernWir wollten uns treffen, doch ihr wart die, die nicht da warenFick die Welt, das Gesetz, fick die CopsIch bin der Grund, dass dein Label dich jetzt dropped (dich jetzt dropped)Ich war damals nur der PausenclownHeute bin ich Rapper und du auf dem Strich, du zupfst deine AugenbrauenDeine ganzen Spaßten, man sie sind zu gaySchlachte euch wie Rinder ey, im Club wie Justin Timberlake
-[Hook: Fler]Ich komm in den Club, das ist mein RevierDoch die Straße sie, bleibt ein Teil von mirLeute schauen mich an, nur weil ich nicht tanz'Doch ich scheiße auf, ihre AkzeptanzDrück auf Play wenn wir kommen, drück auf Stop! (Drück auf Stop)Dann Repeat pump den Sound, oh mein Gott (Oh mein Gott)Was ich trink, ich will Battle on the Rockz (On the Rockz)Ruf die Bullen, weil der Rapper dich jetzt boxt (Dich jetzt boxt)[Part 2: Bushido]Carlo Cokxxx, Flavour am StartDu machst auf 50, Game, Jada und NasDu bist nicht witzig, geh mal du Pickelgesicht'nen Krüppel wie dich, lassen andere Mütter im StichDas hier ist igno-rant, Chromerunner LogoKing Bushido Forum mit dem Osama FotoDein letztes Date war 'ne Moshammer-DokuIch dreh' ein Sextape mit Kader Loth, das ist PromoDeutscher Rap so irrelevantDu bist noch Jungfrau, was du deiner Brille verdankstUnd deine Mutter, guck mal ein fülliger MannUnd du Verräter, verleumdest wie Gülcan dein LandYeah, yeah, wer holt die Waffen jetzt rausWeil Berlin keine Stadtaffen mehr brauchtUnd meine Freunde, sind entweder im Knast oder rausIch bin 'ne Knarre, meine Sätze sie verlassen den Lauf
-[Hook: Fler]Ich komm in den Club, das ist mein RevierDoch die Straße sie, bleibt ein Teil von mirLeute schauen mich an, nur weil ich nicht tanz'Doch ich scheiße auf, ihre AkzeptanzDrück auf Play wenn wir kommen, drück auf Stop! (Drück auf Stop)Dann Repeat pump den Sound, oh mein Gott (Oh mein Gott)Was ich trink, ich will Battle on the Rockz (On the Rockz)Ruf die Bullen, weil der Rapper dich jetzt boxt (Dich jetzt boxt)[Part 3: Kay One]Carlo, neinIch trage jetzt Chucks und Philipp Plein-ShirtsNieten und Strass, ich bin ein Gangbanger Baby Germany's NextWill heute Kay, ich versprech' härteren SexUnd dieser Playboy ist kein RomantikerIch bin einfach so übertrieben arrogant, NiggerUnd steig im Jeep ein, lass uns freestyl'nOder zieh dir meine True Religion-Jeans reinIch komm mit Sonny Black und Frank WhiteHilton oder Radisson, wir checken gleich einIch verwette mein Style, keiner ist wie KayDer Grund warum ich rappe? Weiber und der FameIch möcht' mit keinem quatschen, es sei denn du bist ModelDenn ich steh auf Topmodels, ich schwör ich popp' ModelsIch poppe Popstars, denn ich bin trendyI'm so sorry, Mr. Marc Terenzi
-[Hook: Fler]Ich komm in den Club, das ist mein RevierDoch die Straße sie, bleibt ein Teil von mirLeute schauen mich an, nur weil ich nicht tanz'Doch ich scheiße auf, ihre AkzeptanzDrück auf Play wenn wir kommen, drück auf Stop! (Drück auf Stop)Dann Repeat pump den Sound, oh mein Gott (Oh mein Gott)Was ich trink, ich will Battle on the Rockz (On the Rockz)Ruf die Bullen, weil der Rapper dich jetzt boxt (Dich jetzt boxt)</t>
+          <t>[Part 1]
+Ich schreib' mit Blut diesen Text, ich hoff', du merkst das
+Die Einzige, von der ich jemals was gelernt hab'
+Ich danke dir so sehr, dass du da warst
+Selbst dass du von diesem Drogenscheiß erfahren hast
+Schönheit ist vergänglich, ich behaupte das Gegenteil
+Denn Mama bleibt die schönste Frau hier auf Lebenszeit
+Du warst immer da, als ich dich gebraucht hab'
+Der einzige Mensch, dem ich alles anvertraut hab'
+Dir ist egal, ob ich hart oder weich bin
+Arm oder Reich bin, für dich bin ich nur dein Kind
+Es war schon immer so, so ein großes Herz
+Hat keine andere Frau, du bist mir so viel Wert
+Du hast dein'n Sohn ernährt und das sind keine Sprüche
+Du kochst auch besser, als jede fünf Sterne Küche
+Du bist für mich die schönste Frau auf dieser Welt
+Mein Licht, dass ich brauch', ich verlaufe mich so schnell
+[Hook]
+Und wenn du möchtest, hol' ich dir jeden Stern vom Himmel
+Kein Weg ist mir zu weit, guck, ich springe nur für dich
+In jeden Abgrund dieser Erde
+Weil ich weiß, du würdest das Selbe tun, Mama
+Wenn du möchtest, hol' ich dir jeden Stern vom Himmel
+Kein Weg ist mir zu weit, guck, ich springe nur für dich
+In jeden Abgrund dieser Erde
+Weil ich weiß, du würdest das Selbe tun, Mama
+[Part 2]
+Plötzlich bist du krank geworden, ich dacht', ich bring' mich um
+Für dich hab' ich den Song geschrieben, für immer jung
+Und sei nicht traurig, Kopf hoch, wir schaffen das
+Und nächsten Sommer chillen wir auf der Terrasse ab
+Alles wird gut, du bleibst eine starke Frau, haargenau
+Ich bin da, also hab Vertrauen
+Du weißt genau, ich hab' dich nie im Stich gelassen
+Soll ich dir mal was sagen? Ich wurd' durch dich erwachsen
+Und schau dir Sercan an, er wird bald Geschäftsmann
+Trotzdem keine Disco, Arschkarte, Pech man
+Ich mach' nur Spaß, Mama, du kennst mich
+Und gehe ich auch manchmal zu weit, brems mich
+Denk nicht, dass ich dich jemals allein lass'
+Ich weiß, unser Leben war nicht einfach
+Ich liebe dich, ich würde alles für dich tun
+Für dich gib ich mein letztes Hemd und den Ruhm, Mama
+[Hook]
+Und wenn du möchtest, hol' ich dir jeden Stern vom Himmel
+Kein Weg ist mir zu weit, guck, ich springe nur für dich
+In jeden Abgrund dieser Erde
+Weil ich weiß, du würdest das Selbe tun, Mama
+Wenn du möchtest, hol' ich dir jeden Stern vom Himmel
+Kein Weg ist mir zu weit, guck, ich springe nur für dich
+In jeden Abgrund dieser Erde
+Weil ich weiß, du würdest das Selbe tun, Mama
+[Outro]
+Und wenn du möchtest, hol' ich dir jeden Stern vom Himmel
+Kein Weg ist mir zu weit, guck, ich springe nur für dich
+In jeden Abgrund dieser Erde
+Weil ich weiß, du würdest das Selbe tun, Mama
+Wenn du möchtest, hol' ich dir jeden Stern vom Himmel
+Kein Weg ist mir zu weit, guck, ich springe nur für dich
+In jeden Abgrund dieser Erde
+Weil ich weiß, du würdest das Selbe tun, Mama</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-battle-on-the-rockz-lyrics</t>
+          <t>https://genius.com/Bushido-nur-fur-dich-mama-lyrics</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1180,7 +2006,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Wegen eines Blatt Papiers (Outro)</t>
+          <t>Battle on the Rockz</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1190,14 +2016,98 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Part 1]Ich hab' um jeden Scheiß gekämpftNeid musst du dir erarbeiten, Mitleid kriegst du geschenktIch wollt' Millionär werden, als Millionär sterbenUnd meine Kinder werden einmal MillionärserbenEs war alles nur ein Tanz mit dem TeufelIch wollt' meine Zeit mit keinem Schwanz hier vergeudenGeld machen, aus Ungestrecktem Geld machenWollt’ es einfach in die teuersten Hotels schaffenIch wollt' kein Stück, nein, ich wollt' den ganzen KuchenDas ist der Grund, warum Tausende den Mann verfluchenDas ist der Grund, warum Bullen diesen Mann hier suchenIch bin ein Star, ich lieb' es wenn die Schlampen hupenUnd die gesamte Jugend pumpt meinen SoundDenn ich kümmer' mich, einfach um meinen TraumEs ist über Nacht passiertUnd alles wegen eines Blatt Papiers[Hook]Und das alles verdank' ich bloß dem leeren Blatt PapierDann kam der Text, alles war so krass verschmiertEcht unglaublich, mein Blut war die Tinte für den StiftDu kennst tausend Rapper, doch bestimmt kein'n wie michZeiten ändern sich, gib' mir ein leeres Blatt PapierIch mach' Gold daraus, das Leben war so krass zu mirYeah, mein Blut war die Tinte für den StiftDu kennst hunderttausend Rapper, doch bestimmt kein'n wie mich
-[Part 2]Es war 'ne scheiß harte Zeit (Sercan weißt du noch?)Denn das was ich erschaffen hab, hat vor mir noch kein Arsch erreichtHeute steh' ich hier und weiß ganz genau keiner kann mir wasAußer Gott, denn er hat diesen Mann gemachtMama danke, dass du mich nicht verlassen hastDu hast an mich geglaubt und ich hab’s vollbrachtJa, ich hab’s gemacht, Tag und Nacht nur wachDas hier wird mein Königreich, also macht mir PlatzUnd ich mach' das Dax rein, geh' auf die BühneSeh' die Hände, krieg von Hunderttausenden jetzt LiebeSie steigen auf die Stühle, ich seh's auf der TribüneKein Blatt Papier kann beschreiben was ich grade fühleEs ist unglaublich, Zu wissen jemand braucht michDieser Mann, der niemals ihr Vertrauen brichtEs ist über Nacht passiertUnd alles wegen eines Blatt Papiers[Hook]Und das alles verdank' ich bloß dem leeren Blatt PapierDann kam der Text, alles war so krass verschmiertEcht unglaublich, mein Blut war die Tinte für den StiftDu kennst tausend Rapper, doch bestimmt kein'n wie michZeiten ändern sich, gib' mir ein leeres Blatt PapierIch mach' Gold daraus, das Leben war so krass zu mirYeah, mein Blut war die Tinte für den StiftDu kennst hunderttausend Rapper, doch bestimmt kein'n wie mich
-[Outro]Und das alles verdank' ich bloß dem leeren Blatt PapierDann kam der Text, alles war so krass verschmiertEcht unglaublich, mein Blut war die Tinte für den StiftDu kennst tausend Rapper, doch bestimmt kein'n wie michZeiten ändern sich, gib' mir ein leeres Blatt PapierIch mach' Gold daraus, das Leben war so krass zu mirYeah, mein Blut war die Tinte für den StiftDu kennst hunderttausend Rapper, doch bestimmt kein'n wie mich</t>
+          <t>[Hook: Fler]
+Ich komm in den Club, das ist mein Revier
+Doch die Straße sie, bleibt ein Teil von mir
+Leute schauen mich an, nur weil ich nicht tanz'
+Doch ich scheiße auf, ihre Akzeptanz
+Drück auf Play wenn wir kommen, drück auf Stop! (Drück auf Stop)
+Dann Repeat pump den Sound, oh mein Gott (Oh mein Gott)
+Was ich trink, ich will Battle on the Rockz(On the Rockz)
+Ruf die Bullen, weil der Rapper dich jetzt boxt (Dich jetzt boxt)
+[Part 1: Fler]
+Carlo Cokxxx, Flavour am Start
+An alle Wichser, Homos, Hater das wars
+Ich klär Bitches heut Nacht, mit Kay One im Club
+Und ich Filme mit der Cam wie sie schnell kommt und schluckt
+Wer ich bin? Frank White, der Playboy im Hood
+Schon als Kind machte ich dein Gameboy kaputt
+Scheiß auf Spielzeug und Tetris
+Deine Gang sind vier Toys du redest, zuviel jetzt gibt's Penis
+Ihr könnt nichts außer nichts, nur kopieren und zu labern
+Wir wollten uns treffen, doch ihr wart die, die nicht da waren
+Fick die Welt, das Gesetz, fick die Cops
+Ich bin der Grund, dass dein Label dich jetzt dropped (dich jetzt dropped)
+Ich war damals nur der Pausenclown
+Heute bin ich Rapper und du auf dem Strich, du zupfst deine Augenbrauen
+Deine ganzen Spaßten, man sie sind zu gay
+Schlachte euch wie Rinder ey, im Club wie Justin Timberlake
+[Hook: Fler]
+Ich komm in den Club, das ist mein Revier
+Doch die Straße sie, bleibt ein Teil von mir
+Leute schauen mich an, nur weil ich nicht tanz'
+Doch ich scheiße auf, ihre Akzeptanz
+Drück auf Play wenn wir kommen, drück auf Stop! (Drück auf Stop)
+Dann Repeat pump den Sound, oh mein Gott (Oh mein Gott)
+Was ich trink, ich will Battle on the Rockz(On the Rockz)
+Ruf die Bullen, weil der Rapper dich jetzt boxt (Dich jetzt boxt)
+[Part 2: Bushido]
+Carlo Cokxxx, Flavour am Start
+Du machst auf 50, Game, Jada und Nas
+Du bist nicht witzig, geh mal du Pickelgesicht
+'nen Krüppel wie dich, lassen andere Mütter im Stich
+Das hier ist igno-rant, Chromerunner Logo
+King Bushido Forum mit dem Osama Foto
+Dein letztes Date war 'ne Moshammer-Doku
+Ich dreh' ein Sextape mit Kader Loth, das ist Promo
+Deutscher Rap so irrelevant
+Du bist noch Jungfrau, was du deiner Brille verdankst
+Und deine Mutter, guck mal ein fülliger Mann
+Und du Verräter, verleumdest wie Gülcan dein Land
+Yeah, yeah, wer holt die Waffen jetzt raus
+Weil Berlin keine Stadtaffen mehr braucht
+Und meine Freunde, sind entweder im Knast oder raus
+Ich bin 'ne Knarre, meine Sätze sie verlassen den Lauf
+[Hook: Fler]
+Ich komm in den Club, das ist mein Revier
+Doch die Straße sie, bleibt ein Teil von mir
+Leute schauen mich an, nur weil ich nicht tanz'
+Doch ich scheiße auf, ihre Akzeptanz
+Drück auf Play wenn wir kommen, drück auf Stop! (Drück auf Stop)
+Dann Repeat pump den Sound, oh mein Gott (Oh mein Gott)
+Was ich trink, ich will Battle on the Rockz (On the Rockz)
+Ruf die Bullen, weil der Rapper dich jetzt boxt (Dich jetzt boxt)
+[Part 3: Kay One]
+Carlo, nein
+Ich trage jetzt Chucks und Philipp Plein-Shirts
+Nieten und Strass, ich bin ein Gangbanger Baby Germany's Next
+Will heute Kay, ich versprech' härteren Sex
+Und dieser Playboy ist kein Romantiker
+Ich bin einfach so übertrieben arrogant, Nigger
+Und steig im Jeep ein, lass uns freestyl'n
+Oder zieh dir meine True Religion-Jeans rein
+Ich komm mit Sonny Black und Frank White
+Hilton oder Radisson, wir checken gleich ein
+Ich verwette mein Style, keiner ist wie Kay
+Der Grund warum ich rappe? Weiber und der Fame
+Ich möcht' mit keinem quatschen, es sei denn du bist Model
+Denn ich steh auf Topmodels, ich schwör ich popp' Models
+Ich poppe Popstars, denn ich bin trendy
+I'm so sorry, Mr. Marc Terenzi
+[Hook: Fler]
+Ich komm in den Club, das ist mein Revier
+Doch die Straße sie, bleibt ein Teil von mir
+Leute schauen mich an, nur weil ich nicht tanz'
+Doch ich scheiße auf, ihre Akzeptanz
+Drück auf Play wenn wir kommen, drück auf Stop! (Drück auf Stop)
+Dann Repeat pump den Sound, oh mein Gott (Oh mein Gott)
+Was ich trink, ich will Battle on the Rockz (On the Rockz)
+Ruf die Bullen, weil der Rapper dich jetzt boxt (Dich jetzt boxt)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://genius.com/Bushido-wegen-eines-blatt-papiers-outro-lyrics</t>
+          <t>https://genius.com/Bushido-battle-on-the-rockz-lyrics</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1231,29 +2141,85 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fler</t>
+          <t>Bushido</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mit dem BMW</t>
+          <t>Wegen eines Blatt Papiers (Outro)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Flersguterjunge</t>
+          <t>Zeiten ändern dich</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[Songtext zu „Mit dem BMW“ ft. Bushido][Intro: Bushido, Auszug aus "Carlo Cokxxx Flashback"]Ich mal mich schwarz an und schau dann vorbei wie BladeIch chill mit Bernd Eichinger, mit wem chillst du?Frank White jagt euch mit dem BMW[Hook: Bushido]Frank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMW[Strophe 1: Fler]Ich steh auf dem Parkplatz in Airmax steig ein und geb GasBox meine Gegner, du denkst Mike Tyson steht daMein Outfit passt zu meiner Braut - deiner SchwesterSie steigt ein, macht Mund auf und saugt unterm LenkerDu bist nichts, du Spast! Warum? Weil du gay bistIch fahr' durch dich durch und verpass dir 'n FaceliftDie Ampel, ob grün oder rot ist mir LatteDu Schlampe, du lügst, alles flowt, was ich macheBin ich auf der Street dann ist Blitzlicht-GewitterDu kannst jeden ficken, doch fick nicht den FickerYeah, der Arsch deiner Mutter ist in TopformDie Cops kommen, besser, ich geb Gas wenn die Cops kommenWas ich liebe: Mein Auto, mein BargeldIch steh vor dem Club, du kommst raus und kriegst paar SchellenUnd wenn ich komm ist die Party geficktIch will es nicht mehr rappen, Sonny komm und sag es für mich
-[Hook: Bushido]Frank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMW[Strophe 2: Fler]Junge, ich bin Frank zu dem White und renn zu dem Mic undZeig der ganzen Welt: Für deine Gang ist die Zeit umWas denkst du? Junge, ich mach gleich Stress, komm warteIch ruf meine Gang durch die FreisprechanlageFick dich, dein Team auch, Frank White ist mies draufIch kack auf dein Label, dein' Text und dein' Beat auchBitch, zieh die Jeans aus, ich zieh mein Shirt ausIch sag ihr komm shake mit dem Arsch und sie hört draufMTV, Viva, ich bring die Jungs mitDie Gangs und die Dealer gehen ab zu dem ClubhitWarte, Junge, du musst warten bis der Break kommtDreimal darfst du raten, wann der Break kommt!Ich bin wie ich bin, frag mich nicht wiesoFrank White ist King, Beatzarre, lad den Beat hochIch bin auf der Flucht vor dem Staat und der KripoIch will es nicht rappen, komm sag es Bushido!
-[Hook: Bushido]Frank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMW[Bridge]Frank White ... (Wie's mein Name? Wie, Wie's mein Name?) (4x)(Der King im Dancefloor, ich bin der King im Dancefloor) Frank White(Der King im Dancefloor, ich bin der King im Dancefloor) Frank White(Der King im Dancefloor, ich bin der King im Dancefloor) Frank White(Der King im Dancefloor, mich sehen die Fans, yo!)[Hook: Bushido]Frank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMWFrank White jagt euch mit dem BMW, BMW</t>
+          <t>[Part 1]
+Ich hab' um jeden Scheiß gekämpftNeid musst du dir erarbeiten, Mitleid kriegst du geschenkt
+Ich wollt' Millionär werden, als Millionär sterbenUnd meine Kinder werden einmal Millionärserben
+Es war alles nur ein Tanz mit dem Teufel
+Ich wollt' meine Zeit mit keinem Schwanz hier vergeuden
+Geld machen, aus Ungestrecktem Geld machen
+Wollt’ es einfach in die teuersten Hotels schaffen
+Ich wollt' kein Stück, nein, ich wollt' den ganzen Kuchen
+Das ist der Grund, warum Tausende den Mann verfluchen
+Das ist der Grund, warum Bullen diesen Mann hier suchen
+Ich bin ein Star, ich lieb' es wenn die Schlampen hupen
+Und die gesamte Jugend pumpt meinen Sound
+Denn ich kümmer' mich, einfach um meinen Traum
+Es ist über Nacht passiert
+Und alles wegen eines Blatt Papiers
+[Hook]
+Und das alles verdank' ich bloß dem leeren Blatt Papier
+Dann kam der Text, alles war so krass verschmiert
+Echt unglaublich, mein Blut war die Tinte für den Stift
+Du kennst tausend Rapper, doch bestimmt kein'n wie mich
+Zeiten ändern sich, gib' mir ein leeres Blatt Papier
+Ich mach' Gold daraus, das Leben war so krass zu mir
+Yeah, mein Blut war die Tinte für den Stift
+Du kennst hunderttausend Rapper, doch bestimmt kein'n wie mich
+[Part 2]
+Es war 'ne scheiß harte Zeit (Sercan weißt du noch?)
+Denn das was ich erschaffen hab, hat vor mir noch kein Arsch erreicht
+Heute steh' ich hier und weiß ganz genau keiner kann mir was
+Außer Gott, denn er hat diesen Mann gemacht
+Mama danke, dass du mich nicht verlassen hast
+Du hast an mich geglaubt und ich hab’s vollbracht
+Ja, ich hab’s gemacht, Tag und Nacht nur wach
+Das hier wird mein Königreich, also macht mir Platz
+Und ich mach' das Dax rein, geh' auf die Bühne
+Seh' die Hände, krieg von Hunderttausenden jetzt Liebe
+Sie steigen auf die Stühle, ich seh's auf der Tribüne
+Kein Blatt Papier kann beschreiben was ich grade fühle
+Es ist unglaublich, Zu wissen jemand braucht mich
+Dieser Mann, der niemals ihr Vertrauen bricht
+Es ist über Nacht passiert
+Und alles wegen eines Blatt Papiers
+[Hook]
+Und das alles verdank' ich bloß dem leeren Blatt Papier
+Dann kam der Text, alles war so krass verschmiert
+Echt unglaublich, mein Blut war die Tinte für den Stift
+Du kennst tausend Rapper, doch bestimmt kein'n wie mich
+Zeiten ändern sich, gib' mir ein leeres Blatt Papier
+Ich mach' Gold daraus, das Leben war so krass zu mir
+Yeah, mein Blut war die Tinte für den Stift
+Du kennst hunderttausend Rapper, doch bestimmt kein'n wie mich
+[Outro]
+Und das alles verdank' ich bloß dem leeren Blatt Papier
+Dann kam der Text, alles war so krass verschmiert
+Echt unglaublich, mein Blut war die Tinte für den Stift
+Du kennst tausend Rapper, doch bestimmt kein'n wie mich
+Zeiten ändern sich, gib' mir ein leeres Blatt Papier
+Ich mach' Gold daraus, das Leben war so krass zu mir
+Yeah, mein Blut war die Tinte für den Stift
+Du kennst hunderttausend Rapper, doch bestimmt kein'n wie mich</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://genius.com/Fler-mit-dem-bmw-lyrics</t>
+          <t>https://genius.com/Bushido-wegen-eines-blatt-papiers-outro-lyrics</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1287,28 +2253,112 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kay One</t>
+          <t>Fler</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ich Liebe Dich</t>
+          <t>Mit dem BMW</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Zeiten ändern dich</t>
+          <t>Flersguterjunge</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Hook:]Obwohl du angefangen hast, such' ich die Schuld bei mir/Ich steh' vor deiner Tür, ich hab' keine Geduld, ich frier'/Ja, es ist kalt, Schatz. Lass mich wieder hoch zu dir/Doch, wenn du willst, geb' ich dir mein Herz als Souvenir/Man, du hast angefangen, doch ich such' die Schuld bei mir/Ich steh' vor deiner Tür, ok jetzt sind die Bullen gleich hier/Verdammt, jetzt hast du was du wolltest, ich verzieh' mich nicht/Die Wichser drücken mich zu Boden - ich liebe dich/[Part 1:]Mein Engel kannst du dich erinnern damals wo es schön war/Als ich dir jeden scheiß gekauft hab und dich verwöhnt hab/Wir dachten wir 2 wären für einander da und machten/Uns gegenseitig die größten versprechen so ein Schwachsinn/Ich weiß genau noch als du meintest du liebst mich/Und ich dachte du wärst zu gut für mich und ich verdien's nicht/Erschieß mich ich war so blind vor liebe du warst niedlich/Ich kotz ab jetzt seh ich das du Schlampe nur ein Biest bist/Und deine Mum was hab ich ihr getan/Sie hat mich abgestempelt schon am ersten Tag als sie die Tätowierung sah/MISTSTÜCK ich war dir niemals gut genug/Sag jetzt nichts mehr, für mich war diese Liebe wie ein Fluch/Doch das geht auch vorbei will nicht mehr traurig sein/Ich lenk mich ab ich fick mit Models und ich sauf allein/Du hast unsern Traum zerissen aber drauf geschissen/110 gewählt und mich raus geschmissen/
-[Hook:]Obwohl du angefangen hast, such' ich die Schuld bei mir/Ich steh' vor deiner Tür, ich hab' keine Geduld, ich frier'/Ja, es ist kalt, Schatz. Lass mich wieder hoch zu dir/Doch, wenn du willst, geb' ich dir mein Herz als Souvenir/Man, du hast angefangen, doch ich such' die Schuld bei mir/Ich steh' vor deiner Tür, ok jetzt sind die Bullen gleich hier/Verdammt, jetzt hast du was du wolltest, ich verzieh' mich nicht/Die Wichser drücken mich zu Boden - ich liebe dich/[Part 2:]Die Wixxer drücken mich zu Boden, Engel schau mir in die Augen guck jetzt tief in meine Augen, ich kann es immer noch nicht glauben. Ihr scheiß Mistgeburten Schatz bist du jetzt zufrieden ? Ich küss den Asphalt auf dem ich gerade liege. Man alles meine schuld ja meine scheiß Geduld hat mich hier hin gebracht, du bist wie die feigen Bullen man ich verachte dich, ja und dein Vater soll mich hassen denk er immer noch Strassenjungs haben nichts auf'm Kasten ? Ich bin Assozial und ich bin Tätowiert, rap über Ghettos da, Ghettos dort, Ghettos hier, ich hab die Straße in mir Schatz du wirst mich nie verändern Sekt oder Selters, Rapper oder Gangster bleib in deinem Drecksdorf, leb in deiner Scheinwelt ma schauen wie viel Schuhe du jetzt kaufst mit deinem Kleingeld du hast unsern Traum zerissen aber drauf geschissen 110 gewählt und mich raus geschmissen[Hook:]Obwohl du angefangen hast, such' ich die Schuld bei mir/Ich steh' vor deiner Tür, ich hab' keine Geduld, ich frier'/Ja, es ist kalt, Schatz. Lass mich wieder hoch zu dir/Doch, wenn du willst, geb' ich dir mein Herz als Souvenir/Man, du hast angefangen, doch ich such' die Schuld bei mir/Ich steh' vor deiner Tür, ok jetzt sind die Bullen gleich hier/Verdammt, jetzt hast du was du wolltest, ich verzieh' mich nicht/Die Wichser drücken mich zu Boden - ich liebe dich/</t>
+          <t>[Songtext zu „Mit dem BMW“ ft. Bushido]
+[Intro: Bushido, Auszug aus "Carlo Cokxxx Flashback"]
+Ich mal mich schwarz an und schau dann vorbei wie Blade
+Ich chill mit Bernd Eichinger,mit wem chillst du?
+Frank White jagt euch mit dem BMW
+[Hook: Bushido]
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+[Strophe 1: Fler]
+Ich steh auf dem Parkplatz in Airmax steig ein und geb Gas
+Box meine Gegner, du denkst Mike Tyson steht da
+Mein Outfit passt zu meiner Braut - deiner Schwester
+Sie steigt ein, macht Mund auf und saugt unterm Lenker
+Du bist nichts, du Spast! Warum? Weil du gay bist
+Ich fahr' durch dich durch und verpass dir 'n Facelift
+Die Ampel, ob grün oder rot ist mir Latte
+Du Schlampe, du lügst, alles flowt, was ich mache
+Bin ich auf der Street dann ist Blitzlicht-Gewitter
+Du kannst jeden ficken, doch fick nicht den Ficker
+Yeah, der Arsch deiner Mutter ist in Topform
+Die Cops kommen, besser, ich geb Gas wenn die Cops kommen
+Was ich liebe: Mein Auto, mein Bargeld
+Ich steh vor dem Club, du kommst raus und kriegst paar Schellen
+Und wenn ich komm ist die Party gefickt
+Ich will es nicht mehr rappen, Sonny komm und sag es für mich
+[Hook: Bushido]
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+[Strophe 2: Fler]
+Junge, ich bin Frank zu dem White und renn zu dem Mic und
+Zeig der ganzen Welt: Für deine Gang ist die Zeit um
+Was denkst du? Junge, ich mach gleich Stress, komm warte
+Ich ruf meine Gang durch die Freisprechanlage
+Fick dich, dein Team auch, Frank White ist mies drauf
+Ich kack auf dein Label, dein' Text und dein' Beat auch
+Bitch, zieh die Jeans aus, ich zieh mein Shirt aus
+Ich sag ihr komm shake mit dem Arsch und sie hört drauf
+MTV, Viva, ich bring die Jungs mit
+Die Gangs und die Dealer gehen ab zu dem Clubhit
+Warte, Junge, du musst warten bis der Break kommt
+Dreimal darfst du raten, wann der Break kommt!
+Ich bin wie ich bin, frag mich nicht wieso
+Frank White ist King, Beatzarre, lad den Beat hoch
+Ich bin auf der Flucht vor dem Staat und der Kripo
+Ich will es nicht rappen, komm sag es Bushido!
+[Hook: Bushido]
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+[Bridge]
+Frank White ... (Wie's mein Name? Wie, Wie's mein Name?) (4x)
+(Der King im Dancefloor, ich bin der King im Dancefloor) Frank White
+(Der King im Dancefloor, ich bin der King im Dancefloor) Frank White
+(Der King im Dancefloor, ich bin der King im Dancefloor) Frank White
+(Der King im Dancefloor, mich sehen die Fans, yo!)
+[Hook: Bushido]
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW
+Frank White jagt euch mit dem BMW, BMW</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://genius.com/Kay-one-ich-liebe-dich-lyrics</t>
+          <t>https://genius.com/Fler-mit-dem-bmw-lyrics</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1342,12 +2392,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chakuza &amp; Bizzy Montana</t>
+          <t>Kay One</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Weg eines Kriegers</t>
+          <t>Ich Liebe Dich</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1357,13 +2407,57 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Part 1: Chakuza]Ich spite in Richtung Crowd und alle sagen "Boah, na, super!"Doch dann ficke ich ihre Frauen wie ein Mutanten-OrangutanAber du kannst eine Schelle haben, ich frage mich den ganzen TagWelchen Namen die Stelle hat, da, zwischen Schwanz und ArschMic check, eins, zwo, empfang' Nachrichten am PagerMädchen schreiben: „Keiner kann mich jemals hart ficken wie Peter“Gegen Peters Parts klingst du in den Parts fast wie ein FakerSobald ich im Grab liege, kannst du Arsch kriechen wie KäferDie Vagina deiner Mum kann nach Schaf riechen wie KebabDu bist in der Sonderschule der, den niemand mag wie StreberBöse Parts wie das Rödelheim Hartreim ProjektDie größten Stars haben Trüffel, ich ein Haar im OmeletteDu willst fronten und ich komm mit dem Revolver zum KiezUnd dein Großvater tanzt wie John Travolta in GreaseIch bin krass und ein Held aber schlafe im VanTrag die Last der Welt wie Atlas und die Waage von Roseanne[Hook: Bizzy Montana, Chakuza]Am Fenster zum Hof zieht ein Kopfnicker KlappmesserRapper sind broke, es gibt Vodka im PappbecherManche kacken ab, manche sehen sich als SiegerDoch ein Mann mit Charakter geht den Weg eines KriegersAm Fenster zum Hof zieht ein Kopfnicker KlappmesserRapper sind broke, es gibt Vodka im PappbecherManche kacken ab, manche sehen sich als SiegerDoch ein Mann mit Charakter geht den Weg eines Kriegers
-[Part 2: Bizzy Montana]Klappe zu, Ruhe jetzt, Schnauze, Junge, rede nichtRede ich, wirst du bleicher als es ein Schwede istDu Grete willst nach oben doch, ich seh dich nichtDu bist vor mir sogar noch kleiner als dein Penis istIch weiß du hättest gerne was zu sagen, aberIch nehme dich und deine Jungs hoch wie ein GabelstaplerWas fällt dir ein, du bist kein Dichter oder DenkerIch füll dich ab mit Wein und einem Trichter in der MensaWir sprengen deine Party, Chaos im StudentenheimDie Tür ist zu und deshalb schlage ich das Fenster einWir sind das nicht gewohnt, wir warten nicht, wir rennen reinMädchen packen aus und ihre Jungs ihre Antennen einDu wärst so gerne so wie wir, aber du bist es nichtSogar die Ärzte nennen deinen Geburtstag Ritzen-SchissIch bin das, was für Rapper schlechtes Gewissen istWär das ein Porno, wärst du das, was in der Mitte ist[Hook: Chakuza, Bizzy Montana]Am Fenster zum Hof zieht ein Kopfnicker KlappmesserRapper sind broke, es gibt Vodka im PappbecherManche kacken ab, manche sehen sich als SiegerDoch ein Mann mit Charakter geht den Weg eines KriegersAm Fenster zum Hof zieht ein Kopfnicker KlappmesserRapper sind broke, es gibt Vodka im PappbecherManche kacken ab, manche sehen sich als SiegerDoch ein Mann mit Charakter geht den Weg eines Kriegers</t>
+          <t>[Hook:]
+Obwohl du angefangen hast, such' ich die Schuld bei mir/
+Ich steh' vor deiner Tür, ich hab' keine Geduld, ich frier'/
+Ja, es ist kalt, Schatz. Lass mich wieder hoch zu dir/
+Doch, wenn du willst, geb' ich dir mein Herz als Souvenir/
+Man, du hast angefangen, doch ich such' die Schuld bei mir/
+Ich steh' vor deiner Tür, ok jetzt sind die Bullen gleich hier/
+Verdammt, jetzt hast du was du wolltest, ich verzieh' mich nicht/
+Die Wichser drücken mich zu Boden - ich liebe dich/
+[Part 1:]
+Mein Engel kannst du dich erinnern damals wo es schön war/
+Als ich dir jeden scheiß gekauft hab und dich verwöhnt hab/
+Wir dachten wir 2 wären für einander da und machten/
+Uns gegenseitig die größten versprechen so ein Schwachsinn/
+Ich weiß genau noch als du meintest du liebst mich/
+Und ich dachte du wärst zu gut für mich und ich verdien's nicht/
+Erschieß mich ich war so blind vor liebe du warst niedlich/
+Ich kotz ab jetzt seh ich das du Schlampe nur ein Biest bist/
+Und deine Mum was hab ich ihr getan/
+Sie hat mich abgestempelt schon am ersten Tag als sie die Tätowierung sah/
+MISTSTÜCK ich war dir niemals gut genug/
+Sag jetzt nichts mehr, für mich war diese Liebe wie ein Fluch/
+Doch das geht auch vorbei will nicht mehr traurig sein/
+Ich lenk mich ab ich fick mit Models und ich sauf allein/
+Du hast unsern Traum zerissen aber drauf geschissen/
+110 gewählt und mich raus geschmissen/
+[Hook:]
+Obwohl du angefangen hast, such' ich die Schuld bei mir/
+Ich steh' vor deiner Tür, ich hab' keine Geduld, ich frier'/
+Ja, es ist kalt, Schatz. Lass mich wieder hoch zu dir/
+Doch, wenn du willst, geb' ich dir mein Herz als Souvenir/
+Man, du hast angefangen, doch ich such' die Schuld bei mir/
+Ich steh' vor deiner Tür, ok jetzt sind die Bullen gleich hier/
+Verdammt, jetzt hast du was du wolltest, ich verzieh' mich nicht/
+Die Wichser drücken mich zu Boden - ich liebe dich/
+[Part 2:]
+Die Wixxer drücken mich zu Boden, Engel schau mir in die Augen guck jetzt tief in meine Augen, ich kann es immer noch nicht glauben. Ihr scheiß Mistgeburten Schatz bist du jetzt zufrieden ? Ich küss den Asphalt auf dem ich gerade liege. Man alles meine schuld ja meine scheiß Geduld hat mich hier hin gebracht, du bist wie die feigen Bullen man ich verachte dich, ja und dein Vater soll mich hassen denk er immer noch Strassenjungs haben nichts auf'm Kasten ? Ich bin Assozial und ich bin Tätowiert, rap über Ghettos da, Ghettos dort, Ghettos hier, ich hab die Straße in mir Schatz du wirst mich nie verändern Sekt oder Selters, Rapper oder Gangster bleib in deinem Drecksdorf, leb in deiner Scheinwelt ma schauen wie viel Schuhe du jetzt kaufst mit deinem Kleingeld du hast unsern Traum zerissen aber drauf geschissen 110 gewählt und mich raus geschmissen
+[Hook:]
+Obwohl du angefangen hast, such' ich die Schuld bei mir/
+Ich steh' vor deiner Tür, ich hab' keine Geduld, ich frier'/
+Ja, es ist kalt, Schatz. Lass mich wieder hoch zu dir/
+Doch, wenn du willst, geb' ich dir mein Herz als Souvenir/
+Man, du hast angefangen, doch ich such' die Schuld bei mir/
+Ich steh' vor deiner Tür, ok jetzt sind die Bullen gleich hier/
+Verdammt, jetzt hast du was du wolltest, ich verzieh' mich nicht/
+Die Wichser drücken mich zu Boden - ich liebe dich/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://genius.com/Chakuza-and-bizzy-montana-weg-eines-kriegers-lyrics</t>
+          <t>https://genius.com/Kay-one-ich-liebe-dich-lyrics</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1394,6 +2488,108 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chakuza &amp; Bizzy Montana</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Weg eines Kriegers</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Zeiten ändern dich</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[Part 1: Chakuza]
+Ich spite in Richtung Crowd und alle sagen "Boah, na, super!"
+Doch dann ficke ich ihre Frauen wie ein Mutanten-Orangutan
+Aber du kannst eine Schelle haben, ich frage mich den ganzen Tag
+Welchen Namen die Stelle hat, da, zwischen Schwanz und Arsch
+Mic check, eins, zwo, empfang' Nachrichten am Pager
+Mädchen schreiben: „Keiner kann mich jemals hart ficken wie Peter“
+Gegen Peters Parts klingst du in den Parts fast wie ein Faker
+Sobald ich im Grab liege, kannst du Arsch kriechen wie Käfer
+Die Vagina deiner Mum kann nach Schaf riechen wie Kebab
+Du bist in der Sonderschule der, den niemand mag wie Streber
+Böse Parts wie das Rödelheim Hartreim Projekt
+Die größten Stars haben Trüffel, ich ein Haar im Omelette
+Du willst fronten und ich komm mit dem Revolver zum Kiez
+Und dein Großvater tanzt wie John Travolta in Grease
+Ich bin krass und ein Held aber schlafe im Van
+Trag die Last der Welt wie Atlas und die Waage von Roseanne
+[Hook: Bizzy Montana,Chakuza]
+Am Fenster zum Hof zieht ein Kopfnicker Klappmesser
+Rapper sind broke, es gibt Vodka im Pappbecher
+Manche kacken ab, manche sehen sich als Sieger
+Doch ein Mann mit Charakter geht den Weg eines Kriegers
+Am Fenster zum Hof zieht ein Kopfnicker Klappmesser
+Rapper sind broke, es gibt Vodka im Pappbecher
+Manche kacken ab, manche sehen sich als Sieger
+Doch ein Mann mit Charakter geht den Weg eines Kriegers
+[Part 2: Bizzy Montana]
+Klappe zu, Ruhe jetzt, Schnauze, Junge, rede nicht
+Rede ich, wirst du bleicher als es ein Schwede ist
+Du Grete willst nach oben doch, ich seh dich nicht
+Du bist vor mir sogar noch kleiner als dein Penis ist
+Ich weiß du hättest gerne was zu sagen, aber
+Ich nehme dich und deine Jungs hoch wie ein Gabelstapler
+Was fällt dir ein, du bist kein Dichter oder Denker
+Ich füll dich ab mit Wein und einem Trichter in der Mensa
+Wir sprengen deine Party, Chaos im Studentenheim
+Die Tür ist zu und deshalb schlage ich das Fenster ein
+Wir sind das nicht gewohnt, wir warten nicht, wir rennen rein
+Mädchen packen aus und ihre Jungs ihre Antennen ein
+Du wärst so gerne so wie wir, aber du bist es nicht
+Sogar die Ärzte nennen deinen Geburtstag Ritzen-Schiss
+Ich bin das, was für Rapper schlechtes Gewissen ist
+Wär das ein Porno, wärst du das, was in der Mitte ist
+[Hook: Chakuza, Bizzy Montana]
+Am Fenster zum Hof zieht ein Kopfnicker Klappmesser
+Rapper sind broke, es gibt Vodka im Pappbecher
+Manche kacken ab, manche sehen sich als Sieger
+Doch ein Mann mit Charakter geht den Weg eines Kriegers
+Am Fenster zum Hof zieht ein Kopfnicker KlappmesserRapper sind broke, es gibt Vodka im PappbecherManche kacken ab, manche sehen sich als SiegerDoch ein Mann mit Charakter geht den Weg eines Kriegers</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://genius.com/Chakuza-and-bizzy-montana-weg-eines-kriegers-lyrics</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Released February 19, 2010
+Label
+      ersguterjunge
+Distribution
+      Sony Music Entertainment Germany
+Artwork
+      Ben Baumgarten
+Photography
+      Josef Fischnaller
+Copyright ©
+      Bushido
+Phonographic Copyright ℗
+      Bushido
+Primary Artists
+      Bushido, Chakuza &amp; Bizzy Montana, Fler &amp; 1 more
+Featuring
+      Bushido, Fler, Glashaus &amp; 1 more
+Producers
+      Beatlefield, Beatzarre, Bushido &amp; 2 more
+Writers
+      Beatzarre, Bizzy Montana, Bushido &amp; 5 more
+Additional Vocals
+      Leah Delos Santos &amp; Peppa Singt</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
